--- a/data/Experimentos Protocolo Inseguro.xlsx
+++ b/data/Experimentos Protocolo Inseguro.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Cano\Downloads\caso3_infracomp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresjaveirgonzaleztorres/Documents/INFRACOMP/caso3_infracomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA582DA5-F7EE-474D-9F2F-37D8C3CE3859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos 1" sheetId="1" r:id="rId1"/>
     <sheet name="Datos 2" sheetId="2" r:id="rId2"/>
     <sheet name="Graficas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="436">
   <si>
     <t>Exp 1</t>
   </si>
@@ -1267,11 +1272,80 @@
   <si>
     <t>Exp 10</t>
   </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t># Threads</t>
+  </si>
+  <si>
+    <t>T Promedio ex 1</t>
+  </si>
+  <si>
+    <t>T Promedio ex 2</t>
+  </si>
+  <si>
+    <t>T Promedio ex 3</t>
+  </si>
+  <si>
+    <t>T Promedio ex 4</t>
+  </si>
+  <si>
+    <t>T Promedio ex 5</t>
+  </si>
+  <si>
+    <t>T Promedio ex 6</t>
+  </si>
+  <si>
+    <t>T Promedio ex 7</t>
+  </si>
+  <si>
+    <t>T Promedio ex 8</t>
+  </si>
+  <si>
+    <t>T Promedio ex 9</t>
+  </si>
+  <si>
+    <t>T Promedio ex 10</t>
+  </si>
+  <si>
+    <t># Transacciones</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 1</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 2</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 3</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 4</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 5</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 6</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 7</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 8</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 9</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,10 +1387,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,6 +1408,1700 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>#threads vs Tiempo (Inseguro)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficas!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.049284189716E18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.170074411341E18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-848654288"/>
+        <c:axId val="-848649552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-848654288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-848649552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-848649552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-848654288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>#threads vs CPU (Inseguro)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficas!$N$7:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.200750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.51475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-853001936"/>
+        <c:axId val="-852182448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-853001936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-852182448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-852182448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-853001936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,38 +3366,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD402"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A385" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1673,7 +3449,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +3633,7 @@
         <v>2.53178791E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +3725,7 @@
         <v>965410730000000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +3817,7 @@
         <v>996172190000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +3909,7 @@
         <v>1.00162621E+16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +4001,7 @@
         <v>1.00014872E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +4093,7 @@
         <v>992673520000000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +4185,7 @@
         <v>989245560000000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +4277,7 @@
         <v>1.01570622E+16</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +4369,7 @@
         <v>1.01360702E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +4461,7 @@
         <v>1.00523216E+16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2777,7 +4553,7 @@
         <v>994877550000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +4645,7 @@
         <v>1.01484557E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +4737,7 @@
         <v>998349410000000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3053,7 +4829,7 @@
         <v>1.01873434E+16</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3145,7 +4921,7 @@
         <v>999146660000000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3237,7 +5013,7 @@
         <v>996791470000000</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3329,7 +5105,7 @@
         <v>996381860000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +5197,7 @@
         <v>994821480000000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +5289,7 @@
         <v>1.00292816E+16</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3605,7 +5381,7 @@
         <v>998610290000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3697,7 +5473,7 @@
         <v>1.00818713E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3789,7 +5565,7 @@
         <v>969643250000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3881,7 +5657,7 @@
         <v>1.00164084E+16</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3973,7 +5749,7 @@
         <v>1.01718371E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4065,7 +5841,7 @@
         <v>1.01496016E+16</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4157,7 +5933,7 @@
         <v>1.02325701E+16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4249,7 +6025,7 @@
         <v>1.02415423E+16</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +6117,7 @@
         <v>1.00564419E+16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -4433,7 +6209,7 @@
         <v>933973910000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4525,7 +6301,7 @@
         <v>9800710000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4617,7 +6393,7 @@
         <v>1.00886979E+16</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4709,7 +6485,7 @@
         <v>998805330000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +6577,7 @@
         <v>883753980000000</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +6669,7 @@
         <v>971710760000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4985,7 +6761,7 @@
         <v>996042970000000</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5077,7 +6853,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5169,7 +6945,7 @@
         <v>1.00845532E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -5261,7 +7037,7 @@
         <v>882559320000000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -5353,7 +7129,7 @@
         <v>1.00420816E+16</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5445,7 +7221,7 @@
         <v>1.00294522E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -5537,7 +7313,7 @@
         <v>983735460000000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -5629,7 +7405,7 @@
         <v>981055980000000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +7497,7 @@
         <v>990508490000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5813,7 +7589,7 @@
         <v>997298590000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -5905,7 +7681,7 @@
         <v>988823760000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5997,7 +7773,7 @@
         <v>972195940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -6089,7 +7865,7 @@
         <v>996613490000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -6181,7 +7957,7 @@
         <v>979651650000000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -6273,7 +8049,7 @@
         <v>996891420000000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -6365,7 +8141,7 @@
         <v>1.00393753E+16</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -6457,7 +8233,7 @@
         <v>87460380000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -6549,7 +8325,7 @@
         <v>1.01113235E+16</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -6641,7 +8417,7 @@
         <v>1.01138591E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -6733,7 +8509,7 @@
         <v>1.00577097E+16</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -6825,7 +8601,7 @@
         <v>1.07213353E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6917,7 +8693,7 @@
         <v>930926280000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -7009,7 +8785,7 @@
         <v>984442510000000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -7101,7 +8877,7 @@
         <v>988528760000000</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -7193,7 +8969,7 @@
         <v>999882970000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -7285,7 +9061,7 @@
         <v>994923880000000</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -7377,7 +9153,7 @@
         <v>1.00914286E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -7469,7 +9245,7 @@
         <v>978215610000000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -7561,7 +9337,7 @@
         <v>997476570000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -7653,7 +9429,7 @@
         <v>991871390000000</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -7745,7 +9521,7 @@
         <v>929207420000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7837,7 +9613,7 @@
         <v>981911760000000</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -7929,7 +9705,7 @@
         <v>1.06218853E+16</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -8021,7 +9797,7 @@
         <v>1.00396679E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -8113,7 +9889,7 @@
         <v>1.00380099E+16</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -8205,7 +9981,7 @@
         <v>1.02320824E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -8297,7 +10073,7 @@
         <v>1.00287452E+16</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -8389,7 +10165,7 @@
         <v>990350010000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -8481,7 +10257,7 @@
         <v>990374390000000</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8573,7 +10349,7 @@
         <v>98768030000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -8665,7 +10441,7 @@
         <v>983004030000000</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -8757,7 +10533,7 @@
         <v>994114430000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -8849,7 +10625,7 @@
         <v>995394430000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -8941,7 +10717,7 @@
         <v>991912830000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -9033,7 +10809,7 @@
         <v>972586040000000</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -9125,7 +10901,7 @@
         <v>1.00614888E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -9217,7 +10993,7 @@
         <v>94245360000000</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -9309,7 +11085,7 @@
         <v>1.00247954E+16</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -9401,7 +11177,7 @@
         <v>959364250000000</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -9493,7 +11269,7 @@
         <v>976447990000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -9585,7 +11361,7 @@
         <v>993424450000000</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -9677,7 +11453,7 @@
         <v>1.02313266E+16</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -9769,7 +11545,7 @@
         <v>1.00026819E+16</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -9861,7 +11637,7 @@
         <v>1.00626835E+16</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -9953,7 +11729,7 @@
         <v>980373320000000</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -10045,7 +11821,7 @@
         <v>978844640000000</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -10137,7 +11913,7 @@
         <v>1.00212114E+16</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -10229,7 +12005,7 @@
         <v>993948640000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -10321,7 +12097,7 @@
         <v>1.01142979E+16</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -10413,7 +12189,7 @@
         <v>1.00177981E+16</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10505,7 +12281,7 @@
         <v>1.01038385E+16</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -10597,7 +12373,7 @@
         <v>1.00642683E+16</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -10689,7 +12465,7 @@
         <v>1.02241342E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -10781,7 +12557,7 @@
         <v>992195650000000</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -10873,7 +12649,7 @@
         <v>1.00903315E+16</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -10965,7 +12741,7 @@
         <v>935519660000000</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -11057,7 +12833,7 @@
         <v>98843610000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -11149,7 +12925,7 @@
         <v>1.02447118E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -11241,7 +13017,7 @@
         <v>1.00886005E+16</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -11333,7 +13109,7 @@
         <v>932362320000000</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -11425,7 +13201,7 @@
         <v>986848910000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -11517,7 +13293,7 @@
         <v>980926770000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -11609,7 +13385,7 @@
         <v>975521510000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -11701,7 +13477,7 @@
         <v>9997440000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -11793,7 +13569,7 @@
         <v>1.00306225E+16</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -11885,7 +13661,7 @@
         <v>977823070000000</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -11977,7 +13753,7 @@
         <v>952184050000000</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -12069,7 +13845,7 @@
         <v>994945830000000</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -12161,7 +13937,7 @@
         <v>972620170000000</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -12253,7 +14029,7 @@
         <v>997969060000000</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -12345,7 +14121,7 @@
         <v>1.00499078E+16</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -12437,7 +14213,7 @@
         <v>984298660000000</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -12529,7 +14305,7 @@
         <v>920357130000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -12621,7 +14397,7 @@
         <v>1.01666439E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -12713,7 +14489,7 @@
         <v>1.01610607E+16</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -12805,7 +14581,7 @@
         <v>992093250000000</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -12897,7 +14673,7 @@
         <v>959781160000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -12989,7 +14765,7 @@
         <v>942541370000000</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -13081,7 +14857,7 @@
         <v>915958810000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -13173,7 +14949,7 @@
         <v>1.01164679E+16</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -13265,7 +15041,7 @@
         <v>995416380000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -13357,7 +15133,7 @@
         <v>996491580000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -13449,7 +15225,7 @@
         <v>914415490000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -13541,7 +15317,7 @@
         <v>990106210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -13633,7 +15409,7 @@
         <v>975809210000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -13725,7 +15501,7 @@
         <v>986919610000000</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -13817,7 +15593,7 @@
         <v>955395020000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -13909,7 +15685,7 @@
         <v>998298210000000</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -14001,7 +15777,7 @@
         <v>1.01175163E+16</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -14093,7 +15869,7 @@
         <v>1.02780649E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -14185,7 +15961,7 @@
         <v>987441370000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -14277,7 +16053,7 @@
         <v>97353690000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -14369,7 +16145,7 @@
         <v>97717210000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -14461,7 +16237,7 @@
         <v>1008223700000000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -14553,7 +16329,7 @@
         <v>988126470000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -14645,7 +16421,7 @@
         <v>1014028800000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -14737,7 +16513,7 @@
         <v>1.00468846E+16</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -14829,7 +16605,7 @@
         <v>1.00321828E+16</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -14921,7 +16697,7 @@
         <v>924811540000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -15013,7 +16789,7 @@
         <v>1.00829928E+16</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -15105,7 +16881,7 @@
         <v>1.00619032E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -15197,7 +16973,7 @@
         <v>924019160000000</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -15289,7 +17065,7 @@
         <v>1.00329631E+16</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -15381,7 +17157,7 @@
         <v>992046920000000</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -15473,7 +17249,7 @@
         <v>1013631400000000</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -15565,7 +17341,7 @@
         <v>1.03047865E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -15657,7 +17433,7 @@
         <v>1.01439452E+16</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +17525,7 @@
         <v>1.01655955E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -15841,7 +17617,7 @@
         <v>974173240000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -15933,7 +17709,7 @@
         <v>1.01434332E+16</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -16025,7 +17801,7 @@
         <v>986358850000000</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -16117,7 +17893,7 @@
         <v>1.00612207E+16</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -16209,7 +17985,7 @@
         <v>1.00093135E+16</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -16301,7 +18077,7 @@
         <v>1.00075581E+16</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -16393,7 +18169,7 @@
         <v>998985760000000</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -16485,7 +18261,7 @@
         <v>1.01610362E+16</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -16577,7 +18353,7 @@
         <v>878365790000000</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -16669,7 +18445,7 @@
         <v>997752080000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -16761,7 +18537,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -16853,7 +18629,7 @@
         <v>996832920000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -16945,7 +18721,7 @@
         <v>995843040000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -17037,7 +18813,7 @@
         <v>1.02810151E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -17129,7 +18905,7 @@
         <v>1.00222355E+16</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -17221,7 +18997,7 @@
         <v>1016006100000000</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -17313,7 +19089,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -17405,7 +19181,7 @@
         <v>996055160000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -17497,7 +19273,7 @@
         <v>993731650000000</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -17589,7 +19365,7 @@
         <v>1009771900000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -17681,7 +19457,7 @@
         <v>1.00029989E+16</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -17773,7 +19549,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -17865,7 +19641,7 @@
         <v>957282110000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -17957,7 +19733,7 @@
         <v>1005202900000000</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -18049,7 +19825,7 @@
         <v>1.02804786E+16</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -18141,7 +19917,7 @@
         <v>1.00008777E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -18233,7 +20009,7 @@
         <v>999697680000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -18325,7 +20101,7 @@
         <v>984374240000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -18417,7 +20193,7 @@
         <v>996503770000000</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -18509,7 +20285,7 @@
         <v>1.01846371E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -18601,7 +20377,7 @@
         <v>1.00811155E+16</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -18693,7 +20469,7 @@
         <v>1.01955598E+16</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -18785,7 +20561,7 @@
         <v>1.00090697E+16</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -18877,7 +20653,7 @@
         <v>1.00285257E+16</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -18969,7 +20745,7 @@
         <v>990435340000000</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -19061,7 +20837,7 @@
         <v>1.01481631E+16</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -19153,7 +20929,7 @@
         <v>953229990000000</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -19245,7 +21021,7 @@
         <v>98424990000000</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -19337,7 +21113,7 @@
         <v>998958930000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -19429,7 +21205,7 @@
         <v>992227350000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -19521,7 +21297,7 @@
         <v>1.00743619E+16</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -19613,7 +21389,7 @@
         <v>986058960000000</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -19705,7 +21481,7 @@
         <v>968492470000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -19797,7 +21573,7 @@
         <v>952047510000000</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -19889,7 +21665,7 @@
         <v>1.00073387E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -19981,7 +21757,7 @@
         <v>879575090000000</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -20073,7 +21849,7 @@
         <v>1.00074362E+16</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -20165,7 +21941,7 @@
         <v>99979520000000</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -20257,7 +22033,7 @@
         <v>991427660000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -20349,7 +22125,7 @@
         <v>995316410000000</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -20441,7 +22217,7 @@
         <v>1.13827421E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -20533,7 +22309,7 @@
         <v>1.02094569E+16</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -20625,7 +22401,7 @@
         <v>1.01010103E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -20717,7 +22493,7 @@
         <v>1.01423849E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -20809,7 +22585,7 @@
         <v>993887690000000</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -20901,7 +22677,7 @@
         <v>930653220000000</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -20993,7 +22769,7 @@
         <v>919976790000000</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -21085,7 +22861,7 @@
         <v>911994460000000</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -21177,7 +22953,7 @@
         <v>997596030000000</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -21269,7 +23045,7 @@
         <v>989443040000000</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -21361,7 +23137,7 @@
         <v>991132640000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -21453,7 +23229,7 @@
         <v>937106860000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -21545,7 +23321,7 @@
         <v>1.00424716E+16</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -21637,7 +23413,7 @@
         <v>102453700000000</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -21729,7 +23505,7 @@
         <v>1.01152732E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -21821,7 +23597,7 @@
         <v>1.01656443E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -21913,7 +23689,7 @@
         <v>998900420000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -22005,7 +23781,7 @@
         <v>951437990000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -22097,7 +23873,7 @@
         <v>1.02698973E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -22189,7 +23965,7 @@
         <v>1.01958036E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -22281,7 +24057,7 @@
         <v>1025214800000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -22373,7 +24149,7 @@
         <v>1.01692283E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -22465,7 +24241,7 @@
         <v>910490150000000</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -22557,7 +24333,7 @@
         <v>907681470000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -22649,7 +24425,7 @@
         <v>910112250000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -22741,7 +24517,7 @@
         <v>827326670000000</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -22833,7 +24609,7 @@
         <v>812183660000000</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -22925,7 +24701,7 @@
         <v>813112570000000</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -23017,7 +24793,7 @@
         <v>825332320000000</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -23109,7 +24885,7 @@
         <v>827765540000000</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -23201,7 +24977,7 @@
         <v>825210410000000</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -23293,7 +25069,7 @@
         <v>81850320000000</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -23385,7 +25161,7 @@
         <v>813673330000000</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -23477,7 +25253,7 @@
         <v>824203470000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -23569,7 +25345,7 @@
         <v>91324520000000</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -23661,7 +25437,7 @@
         <v>93731410000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -23753,7 +25529,7 @@
         <v>80826320000000</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -23845,7 +25621,7 @@
         <v>943243550000000</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -23937,7 +25713,7 @@
         <v>808294890000000</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -24029,7 +25805,7 @@
         <v>827143810000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -24121,7 +25897,7 @@
         <v>831003320000000</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -24213,7 +25989,7 @@
         <v>808348540000000</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -24305,7 +26081,7 @@
         <v>826156390000000</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -24397,7 +26173,7 @@
         <v>830903360000000</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -24489,7 +26265,7 @@
         <v>812110510000000</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -24581,7 +26357,7 @@
         <v>817493830000000</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -24673,7 +26449,7 @@
         <v>819449190000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -24765,7 +26541,7 @@
         <v>821487430000000</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -24857,7 +26633,7 @@
         <v>820714560000000</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -24949,7 +26725,7 @@
         <v>816828230000000</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -25041,7 +26817,7 @@
         <v>821584960000000</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -25133,7 +26909,7 @@
         <v>833546260000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -25225,7 +27001,7 @@
         <v>812807810000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -25317,7 +27093,7 @@
         <v>827353490000000</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -25409,7 +27185,7 @@
         <v>850422760000000</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -25501,7 +27277,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -25593,7 +27369,7 @@
         <v>827095060000000</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -25685,7 +27461,7 @@
         <v>818481260000000</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -25777,7 +27553,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -25869,7 +27645,7 @@
         <v>834004620000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -25961,7 +27737,7 @@
         <v>810252680000000</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -26053,7 +27829,7 @@
         <v>827304730000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -26145,7 +27921,7 @@
         <v>816521030000000</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -26237,7 +28013,7 @@
         <v>822830830000000</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -26329,7 +28105,7 @@
         <v>822513880000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -26421,7 +28197,7 @@
         <v>820873030000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -26513,7 +28289,7 @@
         <v>969565240000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -26605,7 +28381,7 @@
         <v>875737520000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -26697,7 +28473,7 @@
         <v>817218320000000</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -26789,7 +28565,7 @@
         <v>826046680000000</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -26881,7 +28657,7 @@
         <v>847584820000000</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -26973,7 +28749,7 @@
         <v>811510750000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -27065,7 +28841,7 @@
         <v>967890270000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -27157,7 +28933,7 @@
         <v>836452470000000</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -27249,7 +29025,7 @@
         <v>823491550000000</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -27341,7 +29117,7 @@
         <v>953695670000000</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -27433,7 +29209,7 @@
         <v>92962190000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -27525,7 +29301,7 @@
         <v>1027231100000000</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -27617,7 +29393,7 @@
         <v>1.01235628E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -27709,7 +29485,7 @@
         <v>952271810000000</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -27801,7 +29577,7 @@
         <v>825715090000000</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -27893,7 +29669,7 @@
         <v>1018239400000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -27985,7 +29761,7 @@
         <v>830020780000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -28077,7 +29853,7 @@
         <v>935748840000000</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -28169,7 +29945,7 @@
         <v>1023903100000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -28261,7 +30037,7 @@
         <v>810574510000000</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -28353,7 +30129,7 @@
         <v>812776120000000</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -28445,7 +30221,7 @@
         <v>820185490000000</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -28537,7 +30313,7 @@
         <v>816345490000000</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -28629,7 +30405,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -28721,7 +30497,7 @@
         <v>817271960000000</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -28813,7 +30589,7 @@
         <v>811835010000000</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -28905,7 +30681,7 @@
         <v>831883470000000</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -28997,7 +30773,7 @@
         <v>941129720000000</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -29089,7 +30865,7 @@
         <v>838351750000000</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -29181,7 +30957,7 @@
         <v>902846730000000</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -29273,7 +31049,7 @@
         <v>806315160000000</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -29365,7 +31141,7 @@
         <v>827646070000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -29457,7 +31233,7 @@
         <v>877680680000000</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -29549,7 +31325,7 @@
         <v>81220560000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -29641,7 +31417,7 @@
         <v>834565380000000</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -29733,7 +31509,7 @@
         <v>811783810000000</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -29825,7 +31601,7 @@
         <v>820907160000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -29917,7 +31693,7 @@
         <v>81988560000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -30009,7 +31785,7 @@
         <v>866740950000000</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -30101,7 +31877,7 @@
         <v>954470980000000</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -30193,7 +31969,7 @@
         <v>903236810000000</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -30285,7 +32061,7 @@
         <v>827977650000000</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -30377,7 +32153,7 @@
         <v>80628590000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -30469,7 +32245,7 @@
         <v>916592710000000</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -30561,7 +32337,7 @@
         <v>870988110000000</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -30653,7 +32429,7 @@
         <v>810928040000000</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -30745,7 +32521,7 @@
         <v>83001590000000</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -30837,7 +32613,7 @@
         <v>814297490000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -30929,7 +32705,7 @@
         <v>98087070000000</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -31021,7 +32797,7 @@
         <v>824337570000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -31113,7 +32889,7 @@
         <v>825317680000000</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -31205,7 +32981,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -31297,7 +33073,7 @@
         <v>840765470000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -31389,7 +33165,7 @@
         <v>980682960000000</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -31481,7 +33257,7 @@
         <v>1.01078858E+16</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -31573,7 +33349,7 @@
         <v>934551730000000</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -31665,7 +33441,7 @@
         <v>806129860000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -31757,7 +33533,7 @@
         <v>812729790000000</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -31849,7 +33625,7 @@
         <v>804998580000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -31941,7 +33717,7 @@
         <v>826965840000000</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -32033,7 +33809,7 @@
         <v>824635020000000</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -32125,7 +33901,7 @@
         <v>81225680000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -32217,7 +33993,7 @@
         <v>825551740000000</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -32309,7 +34085,7 @@
         <v>819719820000000</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -32401,7 +34177,7 @@
         <v>909022420000000</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -32493,7 +34269,7 @@
         <v>825646830000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -32585,7 +34361,7 @@
         <v>9553170000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -32677,7 +34453,7 @@
         <v>809721180000000</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -32769,7 +34545,7 @@
         <v>817298780000000</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -32861,7 +34637,7 @@
         <v>813585560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -32953,7 +34729,7 @@
         <v>822945410000000</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -33045,7 +34821,7 @@
         <v>827409570000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -33137,7 +34913,7 @@
         <v>807699990000000</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -33229,7 +35005,7 @@
         <v>816401570000000</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -33321,7 +35097,7 @@
         <v>80843630000000</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -33413,7 +35189,7 @@
         <v>81020880000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -33505,7 +35281,7 @@
         <v>826804920000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -33597,7 +35373,7 @@
         <v>830386490000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -33689,7 +35465,7 @@
         <v>815248350000000</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -33781,7 +35557,7 @@
         <v>893013880000000</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -33873,7 +35649,7 @@
         <v>817523090000000</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -33965,7 +35741,7 @@
         <v>823747550000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -34057,7 +35833,7 @@
         <v>823201420000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -34149,7 +35925,7 @@
         <v>834896970000000</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -34241,7 +36017,7 @@
         <v>812859010000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -34333,7 +36109,7 @@
         <v>808833720000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -34425,7 +36201,7 @@
         <v>821336270000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -34517,7 +36293,7 @@
         <v>813726970000000</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -34609,7 +36385,7 @@
         <v>807483010000000</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -34701,7 +36477,7 @@
         <v>829642870000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -34793,7 +36569,7 @@
         <v>810813450000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -34885,7 +36661,7 @@
         <v>879665290000000</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -34977,7 +36753,7 @@
         <v>870156730000000</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -35069,7 +36845,7 @@
         <v>883849070000000</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -35161,7 +36937,7 @@
         <v>822255430000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -35253,7 +37029,7 @@
         <v>841952820000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -35345,7 +37121,7 @@
         <v>813500230000000</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -35437,7 +37213,7 @@
         <v>941746550000000</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -35529,7 +37305,7 @@
         <v>889698070000000</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -35621,7 +37397,7 @@
         <v>874901250000000</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -35713,7 +37489,7 @@
         <v>813151590000000</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -35805,7 +37581,7 @@
         <v>814168270000000</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -35897,7 +37673,7 @@
         <v>804869370000000</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -35989,7 +37765,7 @@
         <v>956472660000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -36081,7 +37857,7 @@
         <v>81719150000000</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -36173,7 +37949,7 @@
         <v>816630750000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -36265,7 +38041,7 @@
         <v>880889220000000</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -36357,7 +38133,7 @@
         <v>818378860000000</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -36449,7 +38225,7 @@
         <v>811576570000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -36541,7 +38317,7 @@
         <v>913418310000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -36633,7 +38409,7 @@
         <v>853158310000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -36725,7 +38501,7 @@
         <v>886231090000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -36817,7 +38593,7 @@
         <v>872616760000000</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -36909,7 +38685,7 @@
         <v>894822940000000</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -37001,7 +38777,7 @@
         <v>813163770000000</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -37093,7 +38869,7 @@
         <v>928051760000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -37185,7 +38961,7 @@
         <v>961870610000000</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -37277,7 +39053,7 @@
         <v>933995850000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -37369,7 +39145,7 @@
         <v>892596960000000</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -37461,7 +39237,7 @@
         <v>824596010000000</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -37553,7 +39329,7 @@
         <v>806371230000000</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -37645,7 +39421,7 @@
         <v>817111050000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -37737,7 +39513,7 @@
         <v>868879150000000</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -37829,7 +39605,7 @@
         <v>850164330000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -37921,7 +39697,7 @@
         <v>817532840000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -38013,7 +39789,7 @@
         <v>946456950000000</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -38105,7 +39881,7 @@
         <v>940178850000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -38197,7 +39973,7 @@
         <v>824171780000000</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -38289,7 +40065,7 @@
         <v>824037690000000</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -38381,7 +40157,7 @@
         <v>822530940000000</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -38473,7 +40249,7 @@
         <v>820763320000000</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -38571,48 +40347,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55F8BE7-F2A4-41E6-8BFE-19B3D83FA87A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -38664,7 +40440,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -38756,7 +40532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -38848,7 +40624,7 @@
         <v>2.57098762E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -38940,7 +40716,7 @@
         <v>2.57040492E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -39032,7 +40808,7 @@
         <v>891048770000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -39124,7 +40900,7 @@
         <v>915139610000000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -39216,7 +40992,7 @@
         <v>1.00571003E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -39308,7 +41084,7 @@
         <v>1.02366173E+16</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -39400,7 +41176,7 @@
         <v>1.01058622E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -39492,7 +41268,7 @@
         <v>961224510000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -39584,7 +41360,7 @@
         <v>1.01502599E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -39676,7 +41452,7 @@
         <v>1033694500000000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -39768,7 +41544,7 @@
         <v>891707060000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -39860,7 +41636,7 @@
         <v>880406480000000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -39952,7 +41728,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -40044,7 +41820,7 @@
         <v>989862390000000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -40136,7 +41912,7 @@
         <v>1.00697539E+16</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -40228,7 +42004,7 @@
         <v>1.02683369E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -40320,7 +42096,7 @@
         <v>986407610000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -40412,7 +42188,7 @@
         <v>1.01195399E+16</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -40504,7 +42280,7 @@
         <v>896054180000000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -40596,7 +42372,7 @@
         <v>1030846800000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -40688,7 +42464,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -40780,7 +42556,7 @@
         <v>1.02739689E+16</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -40872,7 +42648,7 @@
         <v>1013753300000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -40964,7 +42740,7 @@
         <v>1.04878631E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -41056,7 +42832,7 @@
         <v>996023470000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -41148,7 +42924,7 @@
         <v>971976520000000</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -41240,7 +43016,7 @@
         <v>989979420000000</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -41332,7 +43108,7 @@
         <v>99836160000000</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -41424,7 +43200,7 @@
         <v>1005817300000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -41516,7 +43292,7 @@
         <v>995277410000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -41608,7 +43384,7 @@
         <v>995175010000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -41700,7 +43476,7 @@
         <v>99561630000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -41792,7 +43568,7 @@
         <v>1.01795414E+16</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -41884,7 +43660,7 @@
         <v>976623530000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -41976,7 +43752,7 @@
         <v>1.00477379E+16</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -42068,7 +43844,7 @@
         <v>999458740000000</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -42160,7 +43936,7 @@
         <v>1.01617921E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -42252,7 +44028,7 @@
         <v>1.17186875E+16</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -42344,7 +44120,7 @@
         <v>993765790000000</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -42436,7 +44212,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -42528,7 +44304,7 @@
         <v>1.00001463E+16</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -42620,7 +44396,7 @@
         <v>1.00013653E+16</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -42712,7 +44488,7 @@
         <v>877324730000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -42804,7 +44580,7 @@
         <v>876978510000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -42896,7 +44672,7 @@
         <v>866580030000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -42988,7 +44764,7 @@
         <v>964771940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -43080,7 +44856,7 @@
         <v>889744390000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -43172,7 +44948,7 @@
         <v>1.00305981E+16</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -43264,7 +45040,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -43356,7 +45132,7 @@
         <v>938879350000000</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -43448,7 +45224,7 @@
         <v>991096080000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -43540,7 +45316,7 @@
         <v>99998780000000</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -43632,7 +45408,7 @@
         <v>1.01202225E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -43724,7 +45500,7 @@
         <v>942712040000000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -43816,7 +45592,7 @@
         <v>1.01647665E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -43908,7 +45684,7 @@
         <v>100332800000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -44000,7 +45776,7 @@
         <v>1.00790431E+16</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -44092,7 +45868,7 @@
         <v>1.00643901E+16</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -44184,7 +45960,7 @@
         <v>984581480000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -44276,7 +46052,7 @@
         <v>1.01252451E+16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -44368,7 +46144,7 @@
         <v>1.01970957E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -44460,7 +46236,7 @@
         <v>1.02433708E+16</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -44552,7 +46328,7 @@
         <v>1012197800000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -44644,7 +46420,7 @@
         <v>1.01289997E+16</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -44736,7 +46512,7 @@
         <v>941078520000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -44828,7 +46604,7 @@
         <v>1.02544885E+16</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -44920,7 +46696,7 @@
         <v>998946740000000</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -45012,7 +46788,7 @@
         <v>1.00817494E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -45104,7 +46880,7 @@
         <v>1028542800000000</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -45196,7 +46972,7 @@
         <v>1.00438126E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -45288,7 +47064,7 @@
         <v>994097360000000</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -45380,7 +47156,7 @@
         <v>948441570000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -45472,7 +47248,7 @@
         <v>1.00936473E+16</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -45564,7 +47340,7 @@
         <v>993085560000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -45656,7 +47432,7 @@
         <v>1.00734842E+16</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -45748,7 +47524,7 @@
         <v>979888140000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -45840,7 +47616,7 @@
         <v>943882330000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -45932,7 +47708,7 @@
         <v>988767690000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -46024,7 +47800,7 @@
         <v>1.01979978E+16</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -46116,7 +47892,7 @@
         <v>1.02609738E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -46208,7 +47984,7 @@
         <v>1.01715201E+16</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -46300,7 +48076,7 @@
         <v>999841530000000</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -46392,7 +48168,7 @@
         <v>1.01208808E+16</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -46484,7 +48260,7 @@
         <v>1004198400000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -46576,7 +48352,7 @@
         <v>1.00333044E+16</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -46668,7 +48444,7 @@
         <v>997449750000000</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -46760,7 +48536,7 @@
         <v>972817660000000</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -46852,7 +48628,7 @@
         <v>988014310000000</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -46944,7 +48720,7 @@
         <v>1.00706316E+16</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -47036,7 +48812,7 @@
         <v>1.00224548E+16</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -47128,7 +48904,7 @@
         <v>993244040000000</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -47220,7 +48996,7 @@
         <v>976194430000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -47312,7 +49088,7 @@
         <v>1015186900000000</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -47404,7 +49180,7 @@
         <v>992129820000000</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -47496,7 +49272,7 @@
         <v>997210810000000</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -47588,7 +49364,7 @@
         <v>994316790000000</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -47680,7 +49456,7 @@
         <v>1.00827978E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -47772,7 +49548,7 @@
         <v>1.00544671E+16</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -47864,7 +49640,7 @@
         <v>979290810000000</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -47956,7 +49732,7 @@
         <v>1.14665395E+16</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -48048,7 +49824,7 @@
         <v>873175090000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -48140,7 +49916,7 @@
         <v>1.01725441E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -48232,7 +50008,7 @@
         <v>995921060000000</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -48324,7 +50100,7 @@
         <v>1.00920138E+16</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -48416,7 +50192,7 @@
         <v>997074290000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -48508,7 +50284,7 @@
         <v>987967990000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -48600,7 +50376,7 @@
         <v>98298940000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -48692,7 +50468,7 @@
         <v>99295390000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -48784,7 +50560,7 @@
         <v>990637710000000</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -48876,7 +50652,7 @@
         <v>1.14329182E+16</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -48968,7 +50744,7 @@
         <v>1.00832854E+16</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -49060,7 +50836,7 @@
         <v>1.01555993E+16</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -49152,7 +50928,7 @@
         <v>1.01408976E+16</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -49244,7 +51020,7 @@
         <v>1.02681663E+16</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -49336,7 +51112,7 @@
         <v>985673750000000</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -49428,7 +51204,7 @@
         <v>1.00408137E+16</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -49520,7 +51296,7 @@
         <v>1001453100000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -49612,7 +51388,7 @@
         <v>1.00989624E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -49704,7 +51480,7 @@
         <v>99126430000000</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -49796,7 +51572,7 @@
         <v>1.00394484E+16</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -49888,7 +51664,7 @@
         <v>1001145900000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -49980,7 +51756,7 @@
         <v>1.01385326E+16</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -50072,7 +51848,7 @@
         <v>993734090000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -50164,7 +51940,7 @@
         <v>992554060000000</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -50256,7 +52032,7 @@
         <v>991729980000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -50348,7 +52124,7 @@
         <v>990981480000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -50440,7 +52216,7 @@
         <v>996713440000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -50532,7 +52308,7 @@
         <v>986049210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -50624,7 +52400,7 @@
         <v>1.00435688E+16</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -50716,7 +52492,7 @@
         <v>1.00472503E+16</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -50808,7 +52584,7 @@
         <v>987685180000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -50900,7 +52676,7 @@
         <v>1.02046538E+16</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -50992,7 +52768,7 @@
         <v>989813630000000</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -51084,7 +52860,7 @@
         <v>1.00747276E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -51176,7 +52952,7 @@
         <v>99887360000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -51268,7 +53044,7 @@
         <v>1005388200000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -51360,7 +53136,7 @@
         <v>994689830000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -51452,7 +53228,7 @@
         <v>1.01860512E+16</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -51544,7 +53320,7 @@
         <v>995518780000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -51636,7 +53412,7 @@
         <v>998222620000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -51728,7 +53504,7 @@
         <v>1002540500000000</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -51820,7 +53596,7 @@
         <v>992412640000000</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -51912,7 +53688,7 @@
         <v>1007782400000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -52004,7 +53780,7 @@
         <v>873711470000000</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -52096,7 +53872,7 @@
         <v>1.00699002E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -52188,7 +53964,7 @@
         <v>1.01241479E+16</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -52280,7 +54056,7 @@
         <v>1000409600000000</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -52372,7 +54148,7 @@
         <v>1.00500541E+16</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -52464,7 +54240,7 @@
         <v>1.00790918E+16</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -52556,7 +54332,7 @@
         <v>1.00039741E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -52648,7 +54424,7 @@
         <v>993390320000000</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -52740,7 +54516,7 @@
         <v>1.00471772E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -52832,7 +54608,7 @@
         <v>972490960000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -52924,7 +54700,7 @@
         <v>990632840000000</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -53016,7 +54792,7 @@
         <v>1.00104107E+16</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -53108,7 +54884,7 @@
         <v>979132330000000</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -53200,7 +54976,7 @@
         <v>990147650000000</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -53292,7 +55068,7 @@
         <v>999541640000000</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -53384,7 +55160,7 @@
         <v>1.01175407E+16</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -53476,7 +55252,7 @@
         <v>990847390000000</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -53568,7 +55344,7 @@
         <v>1.00557593E+16</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -53660,7 +55436,7 @@
         <v>998600530000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -53752,7 +55528,7 @@
         <v>984223070000000</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -53844,7 +55620,7 @@
         <v>992783230000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -53936,7 +55712,7 @@
         <v>987653480000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -54028,7 +55804,7 @@
         <v>1.01845883E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -54120,7 +55896,7 @@
         <v>1008235900000000</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -54212,7 +55988,7 @@
         <v>1.00753859E+16</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -54304,7 +56080,7 @@
         <v>987694930000000</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -54396,7 +56172,7 @@
         <v>998702930000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -54488,7 +56264,7 @@
         <v>1.00728747E+16</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -54580,7 +56356,7 @@
         <v>929346390000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -54672,7 +56448,7 @@
         <v>998554210000000</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -54764,7 +56540,7 @@
         <v>991047310000000</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -54856,7 +56632,7 @@
         <v>990042810000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -54948,7 +56724,7 @@
         <v>1.01028633E+16</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -55040,7 +56816,7 @@
         <v>904750870000000</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -55132,7 +56908,7 @@
         <v>985420190000000</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -55224,7 +57000,7 @@
         <v>989347960000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -55316,7 +57092,7 @@
         <v>996494010000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -55408,7 +57184,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -55500,7 +57276,7 @@
         <v>1.00324998E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -55592,7 +57368,7 @@
         <v>938854980000000</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -55684,7 +57460,7 @@
         <v>9106340000000</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -55776,7 +57552,7 @@
         <v>977169660000000</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -55868,7 +57644,7 @@
         <v>997396110000000</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -55960,7 +57736,7 @@
         <v>1.01089098E+16</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -56052,7 +57828,7 @@
         <v>986792830000000</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -56144,7 +57920,7 @@
         <v>1.00561737E+16</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -56236,7 +58012,7 @@
         <v>1.00178713E+16</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -56328,7 +58104,7 @@
         <v>988041140000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -56420,7 +58196,7 @@
         <v>994960450000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -56512,7 +58288,7 @@
         <v>981848370000000</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -56604,7 +58380,7 @@
         <v>1.00875277E+16</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -56696,7 +58472,7 @@
         <v>993473210000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -56788,7 +58564,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -56880,7 +58656,7 @@
         <v>1.01990219E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -56972,7 +58748,7 @@
         <v>1.01564771E+16</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -57064,7 +58840,7 @@
         <v>994207080000000</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -57156,7 +58932,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -57248,7 +59024,7 @@
         <v>874811040000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -57340,7 +59116,7 @@
         <v>1.01553311E+16</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -57432,7 +59208,7 @@
         <v>1.01558919E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -57524,7 +59300,7 @@
         <v>988053320000000</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -57616,7 +59392,7 @@
         <v>1.00036571E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -57708,7 +59484,7 @@
         <v>1.03600337E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -57800,7 +59576,7 @@
         <v>1.02111148E+16</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -57892,7 +59668,7 @@
         <v>1.00248442E+16</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -57984,7 +59760,7 @@
         <v>1.00332312E+16</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -58076,7 +59852,7 @@
         <v>1.02145769E+16</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -58168,7 +59944,7 @@
         <v>1.00710705E+16</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -58260,7 +60036,7 @@
         <v>1.02006309E+16</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -58352,7 +60128,7 @@
         <v>968202340000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -58444,7 +60220,7 @@
         <v>9644940000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -58536,7 +60312,7 @@
         <v>965532630000000</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -58628,7 +60404,7 @@
         <v>1.00897219E+16</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -58720,7 +60496,7 @@
         <v>1.00951833E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -58812,7 +60588,7 @@
         <v>1.00997669E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -58904,7 +60680,7 @@
         <v>911414190000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -58996,7 +60772,7 @@
         <v>933296120000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -59088,7 +60864,7 @@
         <v>1.01394348E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -59180,7 +60956,7 @@
         <v>1.01179064E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -59272,7 +61048,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -59364,7 +61140,7 @@
         <v>1.00751422E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -59456,7 +61232,7 @@
         <v>1.02633144E+16</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -59548,7 +61324,7 @@
         <v>863739650000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -59640,7 +61416,7 @@
         <v>1011071400000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -59732,7 +61508,7 @@
         <v>1.02316435E+16</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -59824,7 +61600,7 @@
         <v>1.00627566E+16</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -59916,7 +61692,7 @@
         <v>1.02130897E+16</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -60008,7 +61784,7 @@
         <v>1.03011537E+16</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -60100,7 +61876,7 @@
         <v>1.00585631E+16</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -60192,7 +61968,7 @@
         <v>1.01696915E+16</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -60284,7 +62060,7 @@
         <v>1.02712626E+16</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -60376,7 +62152,7 @@
         <v>1.01465296E+16</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -60468,7 +62244,7 @@
         <v>1004013100000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -60560,7 +62336,7 @@
         <v>1.02357152E+16</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -60652,7 +62428,7 @@
         <v>869786130000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -60744,7 +62520,7 @@
         <v>1.00698514E+16</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -60836,7 +62612,7 @@
         <v>1.02078965E+16</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -60928,7 +62704,7 @@
         <v>1.02002897E+16</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -61020,7 +62796,7 @@
         <v>1022910800000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -61112,7 +62888,7 @@
         <v>1.02443217E+16</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -61204,7 +62980,7 @@
         <v>1.02375437E+16</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -61296,7 +63072,7 @@
         <v>1.01410439E+16</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -61388,7 +63164,7 @@
         <v>1.01384108E+16</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -61480,7 +63256,7 @@
         <v>1.01693746E+16</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -61572,7 +63348,7 @@
         <v>1.01007665E+16</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -61664,7 +63440,7 @@
         <v>877946440000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -61756,7 +63532,7 @@
         <v>1.01761281E+16</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -61848,7 +63624,7 @@
         <v>1.02181366E+16</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -61940,7 +63716,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -62032,7 +63808,7 @@
         <v>1.01992657E+16</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -62124,7 +63900,7 @@
         <v>1007979900000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -62216,7 +63992,7 @@
         <v>874469720000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -62308,7 +64084,7 @@
         <v>1.01564283E+16</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -62400,7 +64176,7 @@
         <v>1.01626699E+16</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -62492,7 +64268,7 @@
         <v>1.02496611E+16</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -62584,7 +64360,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -62676,7 +64452,7 @@
         <v>1.01987293E+16</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -62768,7 +64544,7 @@
         <v>1.02281327E+16</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -62860,7 +64636,7 @@
         <v>877673370000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -62952,7 +64728,7 @@
         <v>1.01842713E+16</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -63044,7 +64820,7 @@
         <v>1009350100000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -63136,7 +64912,7 @@
         <v>1.02575605E+16</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -63228,7 +65004,7 @@
         <v>1.02345449E+16</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -63320,7 +65096,7 @@
         <v>879701870000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -63412,7 +65188,7 @@
         <v>871614710000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -63504,7 +65280,7 @@
         <v>866024150000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -63596,7 +65372,7 @@
         <v>885350940000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -63688,7 +65464,7 @@
         <v>1.02482714E+16</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -63780,7 +65556,7 @@
         <v>1.02639972E+16</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -63872,7 +65648,7 @@
         <v>1.02296443E+16</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -63964,7 +65740,7 @@
         <v>873167770000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -64056,7 +65832,7 @@
         <v>87016160000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -64148,7 +65924,7 @@
         <v>1.02772603E+16</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -64240,7 +66016,7 @@
         <v>1.01514546E+16</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -64332,7 +66108,7 @@
         <v>1.00635612E+16</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -64424,7 +66200,7 @@
         <v>1025356200000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -64516,7 +66292,7 @@
         <v>1.01611094E+16</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -64608,7 +66384,7 @@
         <v>1.02006066E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -64700,7 +66476,7 @@
         <v>1.00515901E+16</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -64792,7 +66568,7 @@
         <v>1.04594105E+16</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -64884,7 +66660,7 @@
         <v>960161490000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -64976,7 +66752,7 @@
         <v>874620880000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -65068,7 +66844,7 @@
         <v>1.01733974E+16</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -65160,7 +66936,7 @@
         <v>99946850000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -65252,7 +67028,7 @@
         <v>1.02032885E+16</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -65344,7 +67120,7 @@
         <v>1.01920489E+16</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -65436,7 +67212,7 @@
         <v>1.00120198E+16</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -65528,7 +67304,7 @@
         <v>1.01005227E+16</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -65620,7 +67396,7 @@
         <v>1.01936824E+16</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -65712,7 +67488,7 @@
         <v>1.01525518E+16</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -65804,7 +67580,7 @@
         <v>1.02301807E+16</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -65896,7 +67672,7 @@
         <v>1.01594759E+16</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -65988,7 +67764,7 @@
         <v>1.01743971E+16</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -66080,7 +67856,7 @@
         <v>1.01079589E+16</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -66172,7 +67948,7 @@
         <v>1.01029365E+16</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -66264,7 +68040,7 @@
         <v>1.02252557E+16</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -66356,7 +68132,7 @@
         <v>88824740000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -66448,7 +68224,7 @@
         <v>1.01902935E+16</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -66540,7 +68316,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -66632,7 +68408,7 @@
         <v>1.02555125E+16</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -66724,7 +68500,7 @@
         <v>1.01991925E+16</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -66816,7 +68592,7 @@
         <v>87166590000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -66908,7 +68684,7 @@
         <v>869337520000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -67000,7 +68776,7 @@
         <v>1.02241099E+16</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -67092,7 +68868,7 @@
         <v>1.01637669E+16</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -67184,7 +68960,7 @@
         <v>1.00366933E+16</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -67276,7 +69052,7 @@
         <v>1.02541716E+16</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -67368,7 +69144,7 @@
         <v>866153370000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -67460,7 +69236,7 @@
         <v>1.02041906E+16</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -67552,7 +69328,7 @@
         <v>1.02553662E+16</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -67644,7 +69420,7 @@
         <v>1.02119194E+16</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -67736,7 +69512,7 @@
         <v>1.01423604E+16</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -67828,7 +69604,7 @@
         <v>1019590100000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -67920,7 +69696,7 @@
         <v>1.00786042E+16</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -68012,7 +69788,7 @@
         <v>865580410000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -68104,7 +69880,7 @@
         <v>1.00987917E+16</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -68196,7 +69972,7 @@
         <v>872351010000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -68288,7 +70064,7 @@
         <v>1018444200000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -68380,7 +70156,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -68472,7 +70248,7 @@
         <v>1047889100000000</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -68564,7 +70340,7 @@
         <v>1.00062903E+16</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -68656,7 +70432,7 @@
         <v>974295150000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -68748,7 +70524,7 @@
         <v>1.01774935E+16</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -68840,7 +70616,7 @@
         <v>873019050000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -68932,7 +70708,7 @@
         <v>1.04498533E+16</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -69024,7 +70800,7 @@
         <v>1.01085929E+16</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -69116,7 +70892,7 @@
         <v>960619870000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -69208,7 +70984,7 @@
         <v>1.01154683E+16</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -69300,7 +71076,7 @@
         <v>1.01734462E+16</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -69392,7 +71168,7 @@
         <v>1.06851539E+16</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -69484,7 +71260,7 @@
         <v>897794980000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -69576,7 +71352,7 @@
         <v>871563510000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -69668,7 +71444,7 @@
         <v>1.01819308E+16</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -69760,7 +71536,7 @@
         <v>1.02617053E+16</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -69852,7 +71628,7 @@
         <v>876878560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -69944,7 +71720,7 @@
         <v>1.00472015E+16</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -70036,7 +71812,7 @@
         <v>101122500000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -70128,7 +71904,7 @@
         <v>1.01247574E+16</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -70220,7 +71996,7 @@
         <v>1.00386438E+16</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -70312,7 +72088,7 @@
         <v>1.01020099E+16</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -70404,7 +72180,7 @@
         <v>1034091900000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -70496,7 +72272,7 @@
         <v>98111450000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -70588,7 +72364,7 @@
         <v>994958020000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -70680,7 +72456,7 @@
         <v>1.02278158E+16</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -70772,7 +72548,7 @@
         <v>1.01814675E+16</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -70864,7 +72640,7 @@
         <v>1.01875872E+16</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -70956,7 +72732,7 @@
         <v>871212420000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -71048,7 +72824,7 @@
         <v>994721520000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -71140,7 +72916,7 @@
         <v>1.02066043E+16</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -71232,7 +73008,7 @@
         <v>887781730000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -71324,7 +73100,7 @@
         <v>875176760000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -71416,7 +73192,7 @@
         <v>869939730000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -71508,7 +73284,7 @@
         <v>1.01947796E+16</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -71600,7 +73376,7 @@
         <v>1.01747627E+16</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -71692,7 +73468,7 @@
         <v>871085640000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -71784,7 +73560,7 @@
         <v>1007392300000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -71876,7 +73652,7 @@
         <v>1.02276694E+16</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -71968,7 +73744,7 @@
         <v>1.00723384E+16</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -72060,7 +73836,7 @@
         <v>1.00558568E+16</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -72152,7 +73928,7 @@
         <v>876415310000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -72244,7 +74020,7 @@
         <v>1018802600000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -72336,7 +74112,7 @@
         <v>1.01532587E+16</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -72428,7 +74204,7 @@
         <v>1.02189167E+16</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -72520,7 +74296,7 @@
         <v>1.00245761E+16</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -72612,7 +74388,7 @@
         <v>1.02978623E+16</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -72704,7 +74480,7 @@
         <v>1.01917076E+16</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -72796,7 +74572,7 @@
         <v>1.02213548E+16</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -72888,7 +74664,7 @@
         <v>1.01539902E+16</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -72980,7 +74756,7 @@
         <v>875849680000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -73072,7 +74848,7 @@
         <v>1.00496153E+16</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -73164,7 +74940,7 @@
         <v>879160610000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -73256,7 +75032,7 @@
         <v>1.00094354E+16</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -73348,7 +75124,7 @@
         <v>1.02488078E+16</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -73440,7 +75216,7 @@
         <v>878568160000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -73532,7 +75308,7 @@
         <v>869242430000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -73624,7 +75400,7 @@
         <v>877210140000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -73716,7 +75492,7 @@
         <v>871348950000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -73808,7 +75584,7 @@
         <v>1.01689357E+16</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -73900,7 +75676,7 @@
         <v>1.00895269E+16</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -73992,7 +75768,7 @@
         <v>1.01587932E+16</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -74084,7 +75860,7 @@
         <v>87686880000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -74176,7 +75952,7 @@
         <v>1.02295468E+16</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -74268,7 +76044,7 @@
         <v>963755260000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -74360,7 +76136,7 @@
         <v>1.01118842E+16</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -74452,7 +76228,7 @@
         <v>1.02061655E+16</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -74544,7 +76320,7 @@
         <v>1.00718508E+16</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -74636,7 +76412,7 @@
         <v>996298970000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -74728,7 +76504,7 @@
         <v>1.01752992E+16</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -74820,7 +76596,7 @@
         <v>994992150000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -74912,7 +76688,7 @@
         <v>884860890000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -75004,7 +76780,7 @@
         <v>1.02078477E+16</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -75096,7 +76872,7 @@
         <v>994192450000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -75188,7 +76964,7 @@
         <v>1.01622553E+16</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -75280,7 +77056,7 @@
         <v>1.00628786E+16</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -75372,7 +77148,7 @@
         <v>1.02112611E+16</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -75464,7 +77240,7 @@
         <v>1.02204283E+16</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -75562,13 +77338,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202DAF7-E300-4719-8971-96421E49BB8B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM('Datos 1'!C3:'Datos 1'!C402)</f>
+        <v>1.6633488255900014E+18</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM('Datos 1'!F3:'Datos 1'!F402)</f>
+        <v>1.2286087291600005E+18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM('Datos 1'!I3:I402)</f>
+        <v>2.4192605130999982E+18</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM('Datos 1'!L3:L402)</f>
+        <v>2.3576796220599992E+18</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM('Datos 1'!O3:O402)</f>
+        <v>2.0571962558100009E+18</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM('Datos 1'!R3:R402)</f>
+        <v>2.4284174337800008E+18</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM('Datos 1'!U3:U402)</f>
+        <v>2.4518127285300004E+18</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM('Datos 1'!X3:X402)</f>
+        <v>2.2306331060299999E+18</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM('Datos 1'!AA3:AA402)</f>
+        <v>2.4238686685500001E+18</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM('Datos 1'!AD3:AD402)</f>
+        <v>1.2320160145499991E+18</v>
+      </c>
+      <c r="M2">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1">
+        <f>AVERAGE(C2:L2)</f>
+        <v>2.049284189716E+18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM('Datos 2'!C4:'Datos 2'!C403)/2</f>
+        <v>1.0501288600550002E+18</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM('Datos 2'!F4:'Datos 2'!F403)/2</f>
+        <v>9.9659611448999962E+17</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM('Datos 2'!I3:I403)/2</f>
+        <v>1.2269410889550013E+18</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM('Datos 2'!L3:L403)/2</f>
+        <v>1.2713816782999992E+18</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM('Datos 2'!O3:O403)/2</f>
+        <v>1.11542798993E+18</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM('Datos 2'!R3:R403)/2</f>
+        <v>1.2597713918250004E+18</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM('Datos 2'!U3:U403)/2</f>
+        <v>1.20575430274E+18</v>
+      </c>
+      <c r="J3" s="1">
+        <f>SUM('Datos 2'!X3:X403)/2</f>
+        <v>1.1453239315750003E+18</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUM('Datos 2'!AA3:AA403)/2</f>
+        <v>1.2394212455699999E+18</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SUM('Datos 2'!AD3:AD403)/2</f>
+        <v>1.1899975099700004E+18</v>
+      </c>
+      <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3" si="0">AVERAGE(C3:L3)</f>
+        <v>1.1700744113410002E+18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE('Datos 1'!B3:B402)</f>
+        <v>7.1119999999999983</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE('Datos 1'!E3:E402)</f>
+        <v>7.1487499999999917</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE('Datos 1'!H3:H402)</f>
+        <v>6.2842499999999983</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE('Datos 1'!K3:K402)</f>
+        <v>6.0562499999999977</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE('Datos 1'!N3:N402)</f>
+        <v>6.4080000000000048</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE('Datos 1'!Q3:Q402)</f>
+        <v>5.563750000000006</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE('Datos 1'!T3:T402)</f>
+        <v>5.404750000000007</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE('Datos 1'!W3:W402)</f>
+        <v>5.3525</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE('Datos 1'!Z3:Z402)</f>
+        <v>6.3300000000000018</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE('Datos 1'!AC3:AC402)</f>
+        <v>6.3472499999999998</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(C7:L7)</f>
+        <v>6.2007500000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE('Datos 2'!B3:B403)*2</f>
+        <v>9.7484999999999982</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE('Datos 2'!E3:E403)*2</f>
+        <v>10.447999999999997</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE('Datos 2'!H3:H403)*2</f>
+        <v>15.06999999999997</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE('Datos 2'!K3:K403)*2</f>
+        <v>14.377500000000031</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE('Datos 2'!N3:N403)*2</f>
+        <v>10.934000000000012</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE('Datos 2'!Q3:Q403)*2</f>
+        <v>10.151</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE('Datos 2'!T3:T403)*2</f>
+        <v>8.4454999999999885</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE('Datos 2'!W3:W403)*2</f>
+        <v>10.476999999999993</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE('Datos 2'!Z3:Z403)*2</f>
+        <v>11.827999999999992</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE('Datos 2'!AC3:AC403)*2</f>
+        <v>13.668000000000001</v>
+      </c>
+      <c r="M8">
+        <v>400</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="1">AVERAGE(C8:L8)</f>
+        <v>11.514749999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Experimentos Protocolo Inseguro.xlsx
+++ b/data/Experimentos Protocolo Inseguro.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Cano\Downloads\caso3_infracomp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresjaveirgonzaleztorres/Documents/INFRACOMP/caso3_infracomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA582DA5-F7EE-474D-9F2F-37D8C3CE3859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos 1" sheetId="1" r:id="rId1"/>
     <sheet name="Datos 2" sheetId="2" r:id="rId2"/>
     <sheet name="Graficas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="436">
   <si>
     <t>Exp 1</t>
   </si>
@@ -1267,11 +1272,80 @@
   <si>
     <t>Exp 10</t>
   </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t># Threads</t>
+  </si>
+  <si>
+    <t>T Promedio ex 1</t>
+  </si>
+  <si>
+    <t>T Promedio ex 2</t>
+  </si>
+  <si>
+    <t>T Promedio ex 3</t>
+  </si>
+  <si>
+    <t>T Promedio ex 4</t>
+  </si>
+  <si>
+    <t>T Promedio ex 5</t>
+  </si>
+  <si>
+    <t>T Promedio ex 6</t>
+  </si>
+  <si>
+    <t>T Promedio ex 7</t>
+  </si>
+  <si>
+    <t>T Promedio ex 8</t>
+  </si>
+  <si>
+    <t>T Promedio ex 9</t>
+  </si>
+  <si>
+    <t>T Promedio ex 10</t>
+  </si>
+  <si>
+    <t># Transacciones</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 1</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 2</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 3</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 4</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 5</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 6</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 7</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 8</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 9</t>
+  </si>
+  <si>
+    <t>Memoria prom ex 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,10 +1387,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,6 +1408,1702 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>#threads vs Tiempo (Inseguro)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficas!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.049284189716E18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.170074411341E18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="38184384"/>
+        <c:axId val="38200656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38184384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38200656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38200656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38184384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>#threads vs CPU (Inseguro)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficas!$N$7:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.200750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.51475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="41473008"/>
+        <c:axId val="41475760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41473008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41475760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41475760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41473008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,38 +3368,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD402"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A385" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1673,7 +3451,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +3635,7 @@
         <v>2.53178791E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +3727,7 @@
         <v>965410730000000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +3819,7 @@
         <v>996172190000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +3911,7 @@
         <v>1.00162621E+16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +4003,7 @@
         <v>1.00014872E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +4095,7 @@
         <v>992673520000000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +4187,7 @@
         <v>989245560000000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +4279,7 @@
         <v>1.01570622E+16</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +4371,7 @@
         <v>1.01360702E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +4463,7 @@
         <v>1.00523216E+16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2777,7 +4555,7 @@
         <v>994877550000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +4647,7 @@
         <v>1.01484557E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +4739,7 @@
         <v>998349410000000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3053,7 +4831,7 @@
         <v>1.01873434E+16</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3145,7 +4923,7 @@
         <v>999146660000000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3237,7 +5015,7 @@
         <v>996791470000000</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3329,7 +5107,7 @@
         <v>996381860000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +5199,7 @@
         <v>994821480000000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +5291,7 @@
         <v>1.00292816E+16</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3605,7 +5383,7 @@
         <v>998610290000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3697,7 +5475,7 @@
         <v>1.00818713E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3789,7 +5567,7 @@
         <v>969643250000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3881,7 +5659,7 @@
         <v>1.00164084E+16</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3973,7 +5751,7 @@
         <v>1.01718371E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4065,7 +5843,7 @@
         <v>1.01496016E+16</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4157,7 +5935,7 @@
         <v>1.02325701E+16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4249,7 +6027,7 @@
         <v>1.02415423E+16</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +6119,7 @@
         <v>1.00564419E+16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -4433,7 +6211,7 @@
         <v>933973910000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4525,7 +6303,7 @@
         <v>9800710000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4617,7 +6395,7 @@
         <v>1.00886979E+16</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4709,7 +6487,7 @@
         <v>998805330000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +6579,7 @@
         <v>883753980000000</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +6671,7 @@
         <v>971710760000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4985,7 +6763,7 @@
         <v>996042970000000</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5077,7 +6855,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5169,7 +6947,7 @@
         <v>1.00845532E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -5261,7 +7039,7 @@
         <v>882559320000000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -5353,7 +7131,7 @@
         <v>1.00420816E+16</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5445,7 +7223,7 @@
         <v>1.00294522E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -5537,7 +7315,7 @@
         <v>983735460000000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -5629,7 +7407,7 @@
         <v>981055980000000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +7499,7 @@
         <v>990508490000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5813,7 +7591,7 @@
         <v>997298590000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -5905,7 +7683,7 @@
         <v>988823760000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5997,7 +7775,7 @@
         <v>972195940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -6089,7 +7867,7 @@
         <v>996613490000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -6181,7 +7959,7 @@
         <v>979651650000000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -6273,7 +8051,7 @@
         <v>996891420000000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -6365,7 +8143,7 @@
         <v>1.00393753E+16</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -6457,7 +8235,7 @@
         <v>87460380000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -6549,7 +8327,7 @@
         <v>1.01113235E+16</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -6641,7 +8419,7 @@
         <v>1.01138591E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -6733,7 +8511,7 @@
         <v>1.00577097E+16</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -6825,7 +8603,7 @@
         <v>1.07213353E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6917,7 +8695,7 @@
         <v>930926280000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -7009,7 +8787,7 @@
         <v>984442510000000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -7101,7 +8879,7 @@
         <v>988528760000000</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -7193,7 +8971,7 @@
         <v>999882970000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -7285,7 +9063,7 @@
         <v>994923880000000</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -7377,7 +9155,7 @@
         <v>1.00914286E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -7469,7 +9247,7 @@
         <v>978215610000000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -7561,7 +9339,7 @@
         <v>997476570000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -7653,7 +9431,7 @@
         <v>991871390000000</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -7745,7 +9523,7 @@
         <v>929207420000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7837,7 +9615,7 @@
         <v>981911760000000</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -7929,7 +9707,7 @@
         <v>1.06218853E+16</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -8021,7 +9799,7 @@
         <v>1.00396679E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -8113,7 +9891,7 @@
         <v>1.00380099E+16</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -8205,7 +9983,7 @@
         <v>1.02320824E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -8297,7 +10075,7 @@
         <v>1.00287452E+16</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -8389,7 +10167,7 @@
         <v>990350010000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -8481,7 +10259,7 @@
         <v>990374390000000</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8573,7 +10351,7 @@
         <v>98768030000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -8665,7 +10443,7 @@
         <v>983004030000000</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -8757,7 +10535,7 @@
         <v>994114430000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -8849,7 +10627,7 @@
         <v>995394430000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -8941,7 +10719,7 @@
         <v>991912830000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -9033,7 +10811,7 @@
         <v>972586040000000</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -9125,7 +10903,7 @@
         <v>1.00614888E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -9217,7 +10995,7 @@
         <v>94245360000000</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -9309,7 +11087,7 @@
         <v>1.00247954E+16</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -9401,7 +11179,7 @@
         <v>959364250000000</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -9493,7 +11271,7 @@
         <v>976447990000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -9585,7 +11363,7 @@
         <v>993424450000000</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -9677,7 +11455,7 @@
         <v>1.02313266E+16</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -9769,7 +11547,7 @@
         <v>1.00026819E+16</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -9861,7 +11639,7 @@
         <v>1.00626835E+16</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -9953,7 +11731,7 @@
         <v>980373320000000</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -10045,7 +11823,7 @@
         <v>978844640000000</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -10137,7 +11915,7 @@
         <v>1.00212114E+16</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -10229,7 +12007,7 @@
         <v>993948640000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -10321,7 +12099,7 @@
         <v>1.01142979E+16</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -10413,7 +12191,7 @@
         <v>1.00177981E+16</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10505,7 +12283,7 @@
         <v>1.01038385E+16</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -10597,7 +12375,7 @@
         <v>1.00642683E+16</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -10689,7 +12467,7 @@
         <v>1.02241342E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -10781,7 +12559,7 @@
         <v>992195650000000</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -10873,7 +12651,7 @@
         <v>1.00903315E+16</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -10965,7 +12743,7 @@
         <v>935519660000000</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -11057,7 +12835,7 @@
         <v>98843610000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -11149,7 +12927,7 @@
         <v>1.02447118E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -11241,7 +13019,7 @@
         <v>1.00886005E+16</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -11333,7 +13111,7 @@
         <v>932362320000000</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -11425,7 +13203,7 @@
         <v>986848910000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -11517,7 +13295,7 @@
         <v>980926770000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -11609,7 +13387,7 @@
         <v>975521510000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -11701,7 +13479,7 @@
         <v>9997440000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -11793,7 +13571,7 @@
         <v>1.00306225E+16</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -11885,7 +13663,7 @@
         <v>977823070000000</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -11977,7 +13755,7 @@
         <v>952184050000000</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -12069,7 +13847,7 @@
         <v>994945830000000</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -12161,7 +13939,7 @@
         <v>972620170000000</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -12253,7 +14031,7 @@
         <v>997969060000000</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -12345,7 +14123,7 @@
         <v>1.00499078E+16</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -12437,7 +14215,7 @@
         <v>984298660000000</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -12529,7 +14307,7 @@
         <v>920357130000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -12621,7 +14399,7 @@
         <v>1.01666439E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -12713,7 +14491,7 @@
         <v>1.01610607E+16</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -12805,7 +14583,7 @@
         <v>992093250000000</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -12897,7 +14675,7 @@
         <v>959781160000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -12989,7 +14767,7 @@
         <v>942541370000000</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -13081,7 +14859,7 @@
         <v>915958810000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -13173,7 +14951,7 @@
         <v>1.01164679E+16</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -13265,7 +15043,7 @@
         <v>995416380000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -13357,7 +15135,7 @@
         <v>996491580000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -13449,7 +15227,7 @@
         <v>914415490000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -13541,7 +15319,7 @@
         <v>990106210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -13633,7 +15411,7 @@
         <v>975809210000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -13725,7 +15503,7 @@
         <v>986919610000000</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -13817,7 +15595,7 @@
         <v>955395020000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -13909,7 +15687,7 @@
         <v>998298210000000</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -14001,7 +15779,7 @@
         <v>1.01175163E+16</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -14093,7 +15871,7 @@
         <v>1.02780649E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -14185,7 +15963,7 @@
         <v>987441370000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -14277,7 +16055,7 @@
         <v>97353690000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -14369,7 +16147,7 @@
         <v>97717210000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -14461,7 +16239,7 @@
         <v>1008223700000000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -14553,7 +16331,7 @@
         <v>988126470000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -14645,7 +16423,7 @@
         <v>1014028800000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -14737,7 +16515,7 @@
         <v>1.00468846E+16</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -14829,7 +16607,7 @@
         <v>1.00321828E+16</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -14921,7 +16699,7 @@
         <v>924811540000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -15013,7 +16791,7 @@
         <v>1.00829928E+16</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -15105,7 +16883,7 @@
         <v>1.00619032E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -15197,7 +16975,7 @@
         <v>924019160000000</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -15289,7 +17067,7 @@
         <v>1.00329631E+16</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -15381,7 +17159,7 @@
         <v>992046920000000</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -15473,7 +17251,7 @@
         <v>1013631400000000</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -15565,7 +17343,7 @@
         <v>1.03047865E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -15657,7 +17435,7 @@
         <v>1.01439452E+16</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +17527,7 @@
         <v>1.01655955E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -15841,7 +17619,7 @@
         <v>974173240000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -15933,7 +17711,7 @@
         <v>1.01434332E+16</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -16025,7 +17803,7 @@
         <v>986358850000000</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -16117,7 +17895,7 @@
         <v>1.00612207E+16</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -16209,7 +17987,7 @@
         <v>1.00093135E+16</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -16301,7 +18079,7 @@
         <v>1.00075581E+16</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -16393,7 +18171,7 @@
         <v>998985760000000</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -16485,7 +18263,7 @@
         <v>1.01610362E+16</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -16577,7 +18355,7 @@
         <v>878365790000000</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -16669,7 +18447,7 @@
         <v>997752080000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -16761,7 +18539,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -16853,7 +18631,7 @@
         <v>996832920000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -16945,7 +18723,7 @@
         <v>995843040000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -17037,7 +18815,7 @@
         <v>1.02810151E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -17129,7 +18907,7 @@
         <v>1.00222355E+16</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -17221,7 +18999,7 @@
         <v>1016006100000000</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -17313,7 +19091,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -17405,7 +19183,7 @@
         <v>996055160000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -17497,7 +19275,7 @@
         <v>993731650000000</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -17589,7 +19367,7 @@
         <v>1009771900000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -17681,7 +19459,7 @@
         <v>1.00029989E+16</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -17773,7 +19551,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -17865,7 +19643,7 @@
         <v>957282110000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -17957,7 +19735,7 @@
         <v>1005202900000000</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -18049,7 +19827,7 @@
         <v>1.02804786E+16</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -18141,7 +19919,7 @@
         <v>1.00008777E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -18233,7 +20011,7 @@
         <v>999697680000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -18325,7 +20103,7 @@
         <v>984374240000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -18417,7 +20195,7 @@
         <v>996503770000000</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -18509,7 +20287,7 @@
         <v>1.01846371E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -18601,7 +20379,7 @@
         <v>1.00811155E+16</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -18693,7 +20471,7 @@
         <v>1.01955598E+16</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -18785,7 +20563,7 @@
         <v>1.00090697E+16</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -18877,7 +20655,7 @@
         <v>1.00285257E+16</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -18969,7 +20747,7 @@
         <v>990435340000000</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -19061,7 +20839,7 @@
         <v>1.01481631E+16</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -19153,7 +20931,7 @@
         <v>953229990000000</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -19245,7 +21023,7 @@
         <v>98424990000000</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -19337,7 +21115,7 @@
         <v>998958930000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -19429,7 +21207,7 @@
         <v>992227350000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -19521,7 +21299,7 @@
         <v>1.00743619E+16</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -19613,7 +21391,7 @@
         <v>986058960000000</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -19705,7 +21483,7 @@
         <v>968492470000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -19797,7 +21575,7 @@
         <v>952047510000000</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -19889,7 +21667,7 @@
         <v>1.00073387E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -19981,7 +21759,7 @@
         <v>879575090000000</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -20073,7 +21851,7 @@
         <v>1.00074362E+16</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -20165,7 +21943,7 @@
         <v>99979520000000</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -20257,7 +22035,7 @@
         <v>991427660000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -20349,7 +22127,7 @@
         <v>995316410000000</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -20441,7 +22219,7 @@
         <v>1.13827421E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -20533,7 +22311,7 @@
         <v>1.02094569E+16</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -20625,7 +22403,7 @@
         <v>1.01010103E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -20717,7 +22495,7 @@
         <v>1.01423849E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -20809,7 +22587,7 @@
         <v>993887690000000</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -20901,7 +22679,7 @@
         <v>930653220000000</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -20993,7 +22771,7 @@
         <v>919976790000000</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -21085,7 +22863,7 @@
         <v>911994460000000</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -21177,7 +22955,7 @@
         <v>997596030000000</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -21269,7 +23047,7 @@
         <v>989443040000000</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -21361,7 +23139,7 @@
         <v>991132640000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -21453,7 +23231,7 @@
         <v>937106860000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -21545,7 +23323,7 @@
         <v>1.00424716E+16</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -21637,7 +23415,7 @@
         <v>102453700000000</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -21729,7 +23507,7 @@
         <v>1.01152732E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -21821,7 +23599,7 @@
         <v>1.01656443E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -21913,7 +23691,7 @@
         <v>998900420000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -22005,7 +23783,7 @@
         <v>951437990000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -22097,7 +23875,7 @@
         <v>1.02698973E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -22189,7 +23967,7 @@
         <v>1.01958036E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -22281,7 +24059,7 @@
         <v>1025214800000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -22373,7 +24151,7 @@
         <v>1.01692283E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -22465,7 +24243,7 @@
         <v>910490150000000</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -22557,7 +24335,7 @@
         <v>907681470000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -22649,7 +24427,7 @@
         <v>910112250000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -22741,7 +24519,7 @@
         <v>827326670000000</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -22833,7 +24611,7 @@
         <v>812183660000000</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -22925,7 +24703,7 @@
         <v>813112570000000</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -23017,7 +24795,7 @@
         <v>825332320000000</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -23109,7 +24887,7 @@
         <v>827765540000000</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -23201,7 +24979,7 @@
         <v>825210410000000</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -23293,7 +25071,7 @@
         <v>81850320000000</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -23385,7 +25163,7 @@
         <v>813673330000000</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -23477,7 +25255,7 @@
         <v>824203470000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -23569,7 +25347,7 @@
         <v>91324520000000</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -23661,7 +25439,7 @@
         <v>93731410000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -23753,7 +25531,7 @@
         <v>80826320000000</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -23845,7 +25623,7 @@
         <v>943243550000000</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -23937,7 +25715,7 @@
         <v>808294890000000</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -24029,7 +25807,7 @@
         <v>827143810000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -24121,7 +25899,7 @@
         <v>831003320000000</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -24213,7 +25991,7 @@
         <v>808348540000000</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -24305,7 +26083,7 @@
         <v>826156390000000</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -24397,7 +26175,7 @@
         <v>830903360000000</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -24489,7 +26267,7 @@
         <v>812110510000000</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -24581,7 +26359,7 @@
         <v>817493830000000</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -24673,7 +26451,7 @@
         <v>819449190000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -24765,7 +26543,7 @@
         <v>821487430000000</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -24857,7 +26635,7 @@
         <v>820714560000000</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -24949,7 +26727,7 @@
         <v>816828230000000</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -25041,7 +26819,7 @@
         <v>821584960000000</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -25133,7 +26911,7 @@
         <v>833546260000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -25225,7 +27003,7 @@
         <v>812807810000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -25317,7 +27095,7 @@
         <v>827353490000000</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -25409,7 +27187,7 @@
         <v>850422760000000</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -25501,7 +27279,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -25593,7 +27371,7 @@
         <v>827095060000000</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -25685,7 +27463,7 @@
         <v>818481260000000</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -25777,7 +27555,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -25869,7 +27647,7 @@
         <v>834004620000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -25961,7 +27739,7 @@
         <v>810252680000000</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -26053,7 +27831,7 @@
         <v>827304730000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -26145,7 +27923,7 @@
         <v>816521030000000</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -26237,7 +28015,7 @@
         <v>822830830000000</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -26329,7 +28107,7 @@
         <v>822513880000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -26421,7 +28199,7 @@
         <v>820873030000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -26513,7 +28291,7 @@
         <v>969565240000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -26605,7 +28383,7 @@
         <v>875737520000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -26697,7 +28475,7 @@
         <v>817218320000000</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -26789,7 +28567,7 @@
         <v>826046680000000</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -26881,7 +28659,7 @@
         <v>847584820000000</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -26973,7 +28751,7 @@
         <v>811510750000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -27065,7 +28843,7 @@
         <v>967890270000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -27157,7 +28935,7 @@
         <v>836452470000000</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -27249,7 +29027,7 @@
         <v>823491550000000</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -27341,7 +29119,7 @@
         <v>953695670000000</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -27433,7 +29211,7 @@
         <v>92962190000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -27525,7 +29303,7 @@
         <v>1027231100000000</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -27617,7 +29395,7 @@
         <v>1.01235628E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -27709,7 +29487,7 @@
         <v>952271810000000</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -27801,7 +29579,7 @@
         <v>825715090000000</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -27893,7 +29671,7 @@
         <v>1018239400000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -27985,7 +29763,7 @@
         <v>830020780000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -28077,7 +29855,7 @@
         <v>935748840000000</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -28169,7 +29947,7 @@
         <v>1023903100000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -28261,7 +30039,7 @@
         <v>810574510000000</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -28353,7 +30131,7 @@
         <v>812776120000000</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -28445,7 +30223,7 @@
         <v>820185490000000</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -28537,7 +30315,7 @@
         <v>816345490000000</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -28629,7 +30407,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -28721,7 +30499,7 @@
         <v>817271960000000</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -28813,7 +30591,7 @@
         <v>811835010000000</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -28905,7 +30683,7 @@
         <v>831883470000000</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -28997,7 +30775,7 @@
         <v>941129720000000</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -29089,7 +30867,7 @@
         <v>838351750000000</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -29181,7 +30959,7 @@
         <v>902846730000000</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -29273,7 +31051,7 @@
         <v>806315160000000</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -29365,7 +31143,7 @@
         <v>827646070000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -29457,7 +31235,7 @@
         <v>877680680000000</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -29549,7 +31327,7 @@
         <v>81220560000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -29641,7 +31419,7 @@
         <v>834565380000000</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -29733,7 +31511,7 @@
         <v>811783810000000</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -29825,7 +31603,7 @@
         <v>820907160000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -29917,7 +31695,7 @@
         <v>81988560000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -30009,7 +31787,7 @@
         <v>866740950000000</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -30101,7 +31879,7 @@
         <v>954470980000000</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -30193,7 +31971,7 @@
         <v>903236810000000</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -30285,7 +32063,7 @@
         <v>827977650000000</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -30377,7 +32155,7 @@
         <v>80628590000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -30469,7 +32247,7 @@
         <v>916592710000000</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -30561,7 +32339,7 @@
         <v>870988110000000</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -30653,7 +32431,7 @@
         <v>810928040000000</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -30745,7 +32523,7 @@
         <v>83001590000000</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -30837,7 +32615,7 @@
         <v>814297490000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -30929,7 +32707,7 @@
         <v>98087070000000</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -31021,7 +32799,7 @@
         <v>824337570000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -31113,7 +32891,7 @@
         <v>825317680000000</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -31205,7 +32983,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -31297,7 +33075,7 @@
         <v>840765470000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -31389,7 +33167,7 @@
         <v>980682960000000</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -31481,7 +33259,7 @@
         <v>1.01078858E+16</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -31573,7 +33351,7 @@
         <v>934551730000000</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -31665,7 +33443,7 @@
         <v>806129860000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -31757,7 +33535,7 @@
         <v>812729790000000</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -31849,7 +33627,7 @@
         <v>804998580000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -31941,7 +33719,7 @@
         <v>826965840000000</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -32033,7 +33811,7 @@
         <v>824635020000000</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -32125,7 +33903,7 @@
         <v>81225680000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -32217,7 +33995,7 @@
         <v>825551740000000</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -32309,7 +34087,7 @@
         <v>819719820000000</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -32401,7 +34179,7 @@
         <v>909022420000000</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -32493,7 +34271,7 @@
         <v>825646830000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -32585,7 +34363,7 @@
         <v>9553170000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -32677,7 +34455,7 @@
         <v>809721180000000</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -32769,7 +34547,7 @@
         <v>817298780000000</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -32861,7 +34639,7 @@
         <v>813585560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -32953,7 +34731,7 @@
         <v>822945410000000</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -33045,7 +34823,7 @@
         <v>827409570000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -33137,7 +34915,7 @@
         <v>807699990000000</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -33229,7 +35007,7 @@
         <v>816401570000000</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -33321,7 +35099,7 @@
         <v>80843630000000</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -33413,7 +35191,7 @@
         <v>81020880000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -33505,7 +35283,7 @@
         <v>826804920000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -33597,7 +35375,7 @@
         <v>830386490000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -33689,7 +35467,7 @@
         <v>815248350000000</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -33781,7 +35559,7 @@
         <v>893013880000000</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -33873,7 +35651,7 @@
         <v>817523090000000</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -33965,7 +35743,7 @@
         <v>823747550000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -34057,7 +35835,7 @@
         <v>823201420000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -34149,7 +35927,7 @@
         <v>834896970000000</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -34241,7 +36019,7 @@
         <v>812859010000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -34333,7 +36111,7 @@
         <v>808833720000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -34425,7 +36203,7 @@
         <v>821336270000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -34517,7 +36295,7 @@
         <v>813726970000000</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -34609,7 +36387,7 @@
         <v>807483010000000</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -34701,7 +36479,7 @@
         <v>829642870000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -34793,7 +36571,7 @@
         <v>810813450000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -34885,7 +36663,7 @@
         <v>879665290000000</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -34977,7 +36755,7 @@
         <v>870156730000000</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -35069,7 +36847,7 @@
         <v>883849070000000</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -35161,7 +36939,7 @@
         <v>822255430000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -35253,7 +37031,7 @@
         <v>841952820000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -35345,7 +37123,7 @@
         <v>813500230000000</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -35437,7 +37215,7 @@
         <v>941746550000000</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -35529,7 +37307,7 @@
         <v>889698070000000</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -35621,7 +37399,7 @@
         <v>874901250000000</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -35713,7 +37491,7 @@
         <v>813151590000000</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -35805,7 +37583,7 @@
         <v>814168270000000</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -35897,7 +37675,7 @@
         <v>804869370000000</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -35989,7 +37767,7 @@
         <v>956472660000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -36081,7 +37859,7 @@
         <v>81719150000000</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -36173,7 +37951,7 @@
         <v>816630750000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -36265,7 +38043,7 @@
         <v>880889220000000</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -36357,7 +38135,7 @@
         <v>818378860000000</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -36449,7 +38227,7 @@
         <v>811576570000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -36541,7 +38319,7 @@
         <v>913418310000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -36633,7 +38411,7 @@
         <v>853158310000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -36725,7 +38503,7 @@
         <v>886231090000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -36817,7 +38595,7 @@
         <v>872616760000000</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -36909,7 +38687,7 @@
         <v>894822940000000</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -37001,7 +38779,7 @@
         <v>813163770000000</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -37093,7 +38871,7 @@
         <v>928051760000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -37185,7 +38963,7 @@
         <v>961870610000000</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -37277,7 +39055,7 @@
         <v>933995850000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -37369,7 +39147,7 @@
         <v>892596960000000</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -37461,7 +39239,7 @@
         <v>824596010000000</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -37553,7 +39331,7 @@
         <v>806371230000000</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -37645,7 +39423,7 @@
         <v>817111050000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -37737,7 +39515,7 @@
         <v>868879150000000</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -37829,7 +39607,7 @@
         <v>850164330000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -37921,7 +39699,7 @@
         <v>817532840000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -38013,7 +39791,7 @@
         <v>946456950000000</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -38105,7 +39883,7 @@
         <v>940178850000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -38197,7 +39975,7 @@
         <v>824171780000000</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -38289,7 +40067,7 @@
         <v>824037690000000</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -38381,7 +40159,7 @@
         <v>822530940000000</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -38473,7 +40251,7 @@
         <v>820763320000000</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -38571,48 +40349,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55F8BE7-F2A4-41E6-8BFE-19B3D83FA87A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -38664,7 +40442,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -38756,7 +40534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -38848,7 +40626,7 @@
         <v>2.57098762E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -38940,7 +40718,7 @@
         <v>2.57040492E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -39032,7 +40810,7 @@
         <v>891048770000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -39124,7 +40902,7 @@
         <v>915139610000000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -39216,7 +40994,7 @@
         <v>1.00571003E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -39308,7 +41086,7 @@
         <v>1.02366173E+16</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -39400,7 +41178,7 @@
         <v>1.01058622E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -39492,7 +41270,7 @@
         <v>961224510000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -39584,7 +41362,7 @@
         <v>1.01502599E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -39676,7 +41454,7 @@
         <v>1033694500000000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -39768,7 +41546,7 @@
         <v>891707060000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -39860,7 +41638,7 @@
         <v>880406480000000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -39952,7 +41730,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -40044,7 +41822,7 @@
         <v>989862390000000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -40136,7 +41914,7 @@
         <v>1.00697539E+16</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -40228,7 +42006,7 @@
         <v>1.02683369E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -40320,7 +42098,7 @@
         <v>986407610000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -40412,7 +42190,7 @@
         <v>1.01195399E+16</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -40504,7 +42282,7 @@
         <v>896054180000000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -40596,7 +42374,7 @@
         <v>1030846800000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -40688,7 +42466,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -40780,7 +42558,7 @@
         <v>1.02739689E+16</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -40872,7 +42650,7 @@
         <v>1013753300000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -40964,7 +42742,7 @@
         <v>1.04878631E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -41056,7 +42834,7 @@
         <v>996023470000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -41148,7 +42926,7 @@
         <v>971976520000000</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -41240,7 +43018,7 @@
         <v>989979420000000</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -41332,7 +43110,7 @@
         <v>99836160000000</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -41424,7 +43202,7 @@
         <v>1005817300000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -41516,7 +43294,7 @@
         <v>995277410000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -41608,7 +43386,7 @@
         <v>995175010000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -41700,7 +43478,7 @@
         <v>99561630000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -41792,7 +43570,7 @@
         <v>1.01795414E+16</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -41884,7 +43662,7 @@
         <v>976623530000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -41976,7 +43754,7 @@
         <v>1.00477379E+16</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -42068,7 +43846,7 @@
         <v>999458740000000</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -42160,7 +43938,7 @@
         <v>1.01617921E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -42252,7 +44030,7 @@
         <v>1.17186875E+16</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -42344,7 +44122,7 @@
         <v>993765790000000</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -42436,7 +44214,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -42528,7 +44306,7 @@
         <v>1.00001463E+16</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -42620,7 +44398,7 @@
         <v>1.00013653E+16</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -42712,7 +44490,7 @@
         <v>877324730000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -42804,7 +44582,7 @@
         <v>876978510000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -42896,7 +44674,7 @@
         <v>866580030000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -42988,7 +44766,7 @@
         <v>964771940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -43080,7 +44858,7 @@
         <v>889744390000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -43172,7 +44950,7 @@
         <v>1.00305981E+16</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -43264,7 +45042,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -43356,7 +45134,7 @@
         <v>938879350000000</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -43448,7 +45226,7 @@
         <v>991096080000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -43540,7 +45318,7 @@
         <v>99998780000000</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -43632,7 +45410,7 @@
         <v>1.01202225E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -43724,7 +45502,7 @@
         <v>942712040000000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -43816,7 +45594,7 @@
         <v>1.01647665E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -43908,7 +45686,7 @@
         <v>100332800000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -44000,7 +45778,7 @@
         <v>1.00790431E+16</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -44092,7 +45870,7 @@
         <v>1.00643901E+16</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -44184,7 +45962,7 @@
         <v>984581480000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -44276,7 +46054,7 @@
         <v>1.01252451E+16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -44368,7 +46146,7 @@
         <v>1.01970957E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -44460,7 +46238,7 @@
         <v>1.02433708E+16</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -44552,7 +46330,7 @@
         <v>1012197800000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -44644,7 +46422,7 @@
         <v>1.01289997E+16</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -44736,7 +46514,7 @@
         <v>941078520000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -44828,7 +46606,7 @@
         <v>1.02544885E+16</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -44920,7 +46698,7 @@
         <v>998946740000000</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -45012,7 +46790,7 @@
         <v>1.00817494E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -45104,7 +46882,7 @@
         <v>1028542800000000</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -45196,7 +46974,7 @@
         <v>1.00438126E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -45288,7 +47066,7 @@
         <v>994097360000000</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -45380,7 +47158,7 @@
         <v>948441570000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -45472,7 +47250,7 @@
         <v>1.00936473E+16</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -45564,7 +47342,7 @@
         <v>993085560000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -45656,7 +47434,7 @@
         <v>1.00734842E+16</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -45748,7 +47526,7 @@
         <v>979888140000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -45840,7 +47618,7 @@
         <v>943882330000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -45932,7 +47710,7 @@
         <v>988767690000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -46024,7 +47802,7 @@
         <v>1.01979978E+16</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -46116,7 +47894,7 @@
         <v>1.02609738E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -46208,7 +47986,7 @@
         <v>1.01715201E+16</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -46300,7 +48078,7 @@
         <v>999841530000000</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -46392,7 +48170,7 @@
         <v>1.01208808E+16</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -46484,7 +48262,7 @@
         <v>1004198400000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -46576,7 +48354,7 @@
         <v>1.00333044E+16</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -46668,7 +48446,7 @@
         <v>997449750000000</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -46760,7 +48538,7 @@
         <v>972817660000000</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -46852,7 +48630,7 @@
         <v>988014310000000</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -46944,7 +48722,7 @@
         <v>1.00706316E+16</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -47036,7 +48814,7 @@
         <v>1.00224548E+16</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -47128,7 +48906,7 @@
         <v>993244040000000</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -47220,7 +48998,7 @@
         <v>976194430000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -47312,7 +49090,7 @@
         <v>1015186900000000</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -47404,7 +49182,7 @@
         <v>992129820000000</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -47496,7 +49274,7 @@
         <v>997210810000000</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -47588,7 +49366,7 @@
         <v>994316790000000</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -47680,7 +49458,7 @@
         <v>1.00827978E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -47772,7 +49550,7 @@
         <v>1.00544671E+16</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -47864,7 +49642,7 @@
         <v>979290810000000</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -47956,7 +49734,7 @@
         <v>1.14665395E+16</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -48048,7 +49826,7 @@
         <v>873175090000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -48140,7 +49918,7 @@
         <v>1.01725441E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -48232,7 +50010,7 @@
         <v>995921060000000</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -48324,7 +50102,7 @@
         <v>1.00920138E+16</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -48416,7 +50194,7 @@
         <v>997074290000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -48508,7 +50286,7 @@
         <v>987967990000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -48600,7 +50378,7 @@
         <v>98298940000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -48692,7 +50470,7 @@
         <v>99295390000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -48784,7 +50562,7 @@
         <v>990637710000000</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -48876,7 +50654,7 @@
         <v>1.14329182E+16</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -48968,7 +50746,7 @@
         <v>1.00832854E+16</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -49060,7 +50838,7 @@
         <v>1.01555993E+16</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -49152,7 +50930,7 @@
         <v>1.01408976E+16</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -49244,7 +51022,7 @@
         <v>1.02681663E+16</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -49336,7 +51114,7 @@
         <v>985673750000000</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -49428,7 +51206,7 @@
         <v>1.00408137E+16</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -49520,7 +51298,7 @@
         <v>1001453100000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -49612,7 +51390,7 @@
         <v>1.00989624E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -49704,7 +51482,7 @@
         <v>99126430000000</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -49796,7 +51574,7 @@
         <v>1.00394484E+16</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -49888,7 +51666,7 @@
         <v>1001145900000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -49980,7 +51758,7 @@
         <v>1.01385326E+16</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -50072,7 +51850,7 @@
         <v>993734090000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -50164,7 +51942,7 @@
         <v>992554060000000</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -50256,7 +52034,7 @@
         <v>991729980000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -50348,7 +52126,7 @@
         <v>990981480000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -50440,7 +52218,7 @@
         <v>996713440000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -50532,7 +52310,7 @@
         <v>986049210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -50624,7 +52402,7 @@
         <v>1.00435688E+16</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -50716,7 +52494,7 @@
         <v>1.00472503E+16</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -50808,7 +52586,7 @@
         <v>987685180000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -50900,7 +52678,7 @@
         <v>1.02046538E+16</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -50992,7 +52770,7 @@
         <v>989813630000000</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -51084,7 +52862,7 @@
         <v>1.00747276E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -51176,7 +52954,7 @@
         <v>99887360000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -51268,7 +53046,7 @@
         <v>1005388200000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -51360,7 +53138,7 @@
         <v>994689830000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -51452,7 +53230,7 @@
         <v>1.01860512E+16</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -51544,7 +53322,7 @@
         <v>995518780000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -51636,7 +53414,7 @@
         <v>998222620000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -51728,7 +53506,7 @@
         <v>1002540500000000</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -51820,7 +53598,7 @@
         <v>992412640000000</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -51912,7 +53690,7 @@
         <v>1007782400000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -52004,7 +53782,7 @@
         <v>873711470000000</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -52096,7 +53874,7 @@
         <v>1.00699002E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -52188,7 +53966,7 @@
         <v>1.01241479E+16</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -52280,7 +54058,7 @@
         <v>1000409600000000</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -52372,7 +54150,7 @@
         <v>1.00500541E+16</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -52464,7 +54242,7 @@
         <v>1.00790918E+16</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -52556,7 +54334,7 @@
         <v>1.00039741E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -52648,7 +54426,7 @@
         <v>993390320000000</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -52740,7 +54518,7 @@
         <v>1.00471772E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -52832,7 +54610,7 @@
         <v>972490960000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -52924,7 +54702,7 @@
         <v>990632840000000</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -53016,7 +54794,7 @@
         <v>1.00104107E+16</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -53108,7 +54886,7 @@
         <v>979132330000000</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -53200,7 +54978,7 @@
         <v>990147650000000</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -53292,7 +55070,7 @@
         <v>999541640000000</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -53384,7 +55162,7 @@
         <v>1.01175407E+16</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -53476,7 +55254,7 @@
         <v>990847390000000</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -53568,7 +55346,7 @@
         <v>1.00557593E+16</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -53660,7 +55438,7 @@
         <v>998600530000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -53752,7 +55530,7 @@
         <v>984223070000000</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -53844,7 +55622,7 @@
         <v>992783230000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -53936,7 +55714,7 @@
         <v>987653480000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -54028,7 +55806,7 @@
         <v>1.01845883E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -54120,7 +55898,7 @@
         <v>1008235900000000</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -54212,7 +55990,7 @@
         <v>1.00753859E+16</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -54304,7 +56082,7 @@
         <v>987694930000000</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -54396,7 +56174,7 @@
         <v>998702930000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -54488,7 +56266,7 @@
         <v>1.00728747E+16</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -54580,7 +56358,7 @@
         <v>929346390000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -54672,7 +56450,7 @@
         <v>998554210000000</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -54764,7 +56542,7 @@
         <v>991047310000000</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -54856,7 +56634,7 @@
         <v>990042810000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -54948,7 +56726,7 @@
         <v>1.01028633E+16</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -55040,7 +56818,7 @@
         <v>904750870000000</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -55132,7 +56910,7 @@
         <v>985420190000000</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -55224,7 +57002,7 @@
         <v>989347960000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -55316,7 +57094,7 @@
         <v>996494010000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -55408,7 +57186,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -55500,7 +57278,7 @@
         <v>1.00324998E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -55592,7 +57370,7 @@
         <v>938854980000000</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -55684,7 +57462,7 @@
         <v>9106340000000</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -55776,7 +57554,7 @@
         <v>977169660000000</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -55868,7 +57646,7 @@
         <v>997396110000000</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -55960,7 +57738,7 @@
         <v>1.01089098E+16</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -56052,7 +57830,7 @@
         <v>986792830000000</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -56144,7 +57922,7 @@
         <v>1.00561737E+16</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -56236,7 +58014,7 @@
         <v>1.00178713E+16</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -56328,7 +58106,7 @@
         <v>988041140000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -56420,7 +58198,7 @@
         <v>994960450000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -56512,7 +58290,7 @@
         <v>981848370000000</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -56604,7 +58382,7 @@
         <v>1.00875277E+16</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -56696,7 +58474,7 @@
         <v>993473210000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -56788,7 +58566,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -56880,7 +58658,7 @@
         <v>1.01990219E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -56972,7 +58750,7 @@
         <v>1.01564771E+16</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -57064,7 +58842,7 @@
         <v>994207080000000</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -57156,7 +58934,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -57248,7 +59026,7 @@
         <v>874811040000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -57340,7 +59118,7 @@
         <v>1.01553311E+16</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -57432,7 +59210,7 @@
         <v>1.01558919E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -57524,7 +59302,7 @@
         <v>988053320000000</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -57616,7 +59394,7 @@
         <v>1.00036571E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -57708,7 +59486,7 @@
         <v>1.03600337E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -57800,7 +59578,7 @@
         <v>1.02111148E+16</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -57892,7 +59670,7 @@
         <v>1.00248442E+16</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -57984,7 +59762,7 @@
         <v>1.00332312E+16</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -58076,7 +59854,7 @@
         <v>1.02145769E+16</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -58168,7 +59946,7 @@
         <v>1.00710705E+16</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -58260,7 +60038,7 @@
         <v>1.02006309E+16</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -58352,7 +60130,7 @@
         <v>968202340000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -58444,7 +60222,7 @@
         <v>9644940000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -58536,7 +60314,7 @@
         <v>965532630000000</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -58628,7 +60406,7 @@
         <v>1.00897219E+16</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -58720,7 +60498,7 @@
         <v>1.00951833E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -58812,7 +60590,7 @@
         <v>1.00997669E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -58904,7 +60682,7 @@
         <v>911414190000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -58996,7 +60774,7 @@
         <v>933296120000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -59088,7 +60866,7 @@
         <v>1.01394348E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -59180,7 +60958,7 @@
         <v>1.01179064E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -59272,7 +61050,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -59364,7 +61142,7 @@
         <v>1.00751422E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -59456,7 +61234,7 @@
         <v>1.02633144E+16</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -59548,7 +61326,7 @@
         <v>863739650000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -59640,7 +61418,7 @@
         <v>1011071400000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -59732,7 +61510,7 @@
         <v>1.02316435E+16</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -59824,7 +61602,7 @@
         <v>1.00627566E+16</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -59916,7 +61694,7 @@
         <v>1.02130897E+16</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -60008,7 +61786,7 @@
         <v>1.03011537E+16</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -60100,7 +61878,7 @@
         <v>1.00585631E+16</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -60192,7 +61970,7 @@
         <v>1.01696915E+16</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -60284,7 +62062,7 @@
         <v>1.02712626E+16</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -60376,7 +62154,7 @@
         <v>1.01465296E+16</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -60468,7 +62246,7 @@
         <v>1004013100000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -60560,7 +62338,7 @@
         <v>1.02357152E+16</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -60652,7 +62430,7 @@
         <v>869786130000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -60744,7 +62522,7 @@
         <v>1.00698514E+16</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -60836,7 +62614,7 @@
         <v>1.02078965E+16</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -60928,7 +62706,7 @@
         <v>1.02002897E+16</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -61020,7 +62798,7 @@
         <v>1022910800000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -61112,7 +62890,7 @@
         <v>1.02443217E+16</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -61204,7 +62982,7 @@
         <v>1.02375437E+16</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -61296,7 +63074,7 @@
         <v>1.01410439E+16</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -61388,7 +63166,7 @@
         <v>1.01384108E+16</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -61480,7 +63258,7 @@
         <v>1.01693746E+16</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -61572,7 +63350,7 @@
         <v>1.01007665E+16</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -61664,7 +63442,7 @@
         <v>877946440000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -61756,7 +63534,7 @@
         <v>1.01761281E+16</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -61848,7 +63626,7 @@
         <v>1.02181366E+16</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -61940,7 +63718,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -62032,7 +63810,7 @@
         <v>1.01992657E+16</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -62124,7 +63902,7 @@
         <v>1007979900000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -62216,7 +63994,7 @@
         <v>874469720000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -62308,7 +64086,7 @@
         <v>1.01564283E+16</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -62400,7 +64178,7 @@
         <v>1.01626699E+16</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -62492,7 +64270,7 @@
         <v>1.02496611E+16</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -62584,7 +64362,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -62676,7 +64454,7 @@
         <v>1.01987293E+16</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -62768,7 +64546,7 @@
         <v>1.02281327E+16</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -62860,7 +64638,7 @@
         <v>877673370000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -62952,7 +64730,7 @@
         <v>1.01842713E+16</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -63044,7 +64822,7 @@
         <v>1009350100000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -63136,7 +64914,7 @@
         <v>1.02575605E+16</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -63228,7 +65006,7 @@
         <v>1.02345449E+16</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -63320,7 +65098,7 @@
         <v>879701870000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -63412,7 +65190,7 @@
         <v>871614710000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -63504,7 +65282,7 @@
         <v>866024150000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -63596,7 +65374,7 @@
         <v>885350940000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -63688,7 +65466,7 @@
         <v>1.02482714E+16</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -63780,7 +65558,7 @@
         <v>1.02639972E+16</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -63872,7 +65650,7 @@
         <v>1.02296443E+16</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -63964,7 +65742,7 @@
         <v>873167770000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -64056,7 +65834,7 @@
         <v>87016160000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -64148,7 +65926,7 @@
         <v>1.02772603E+16</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -64240,7 +66018,7 @@
         <v>1.01514546E+16</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -64332,7 +66110,7 @@
         <v>1.00635612E+16</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -64424,7 +66202,7 @@
         <v>1025356200000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -64516,7 +66294,7 @@
         <v>1.01611094E+16</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -64608,7 +66386,7 @@
         <v>1.02006066E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -64700,7 +66478,7 @@
         <v>1.00515901E+16</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -64792,7 +66570,7 @@
         <v>1.04594105E+16</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -64884,7 +66662,7 @@
         <v>960161490000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -64976,7 +66754,7 @@
         <v>874620880000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -65068,7 +66846,7 @@
         <v>1.01733974E+16</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -65160,7 +66938,7 @@
         <v>99946850000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -65252,7 +67030,7 @@
         <v>1.02032885E+16</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -65344,7 +67122,7 @@
         <v>1.01920489E+16</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -65436,7 +67214,7 @@
         <v>1.00120198E+16</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -65528,7 +67306,7 @@
         <v>1.01005227E+16</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -65620,7 +67398,7 @@
         <v>1.01936824E+16</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -65712,7 +67490,7 @@
         <v>1.01525518E+16</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -65804,7 +67582,7 @@
         <v>1.02301807E+16</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -65896,7 +67674,7 @@
         <v>1.01594759E+16</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -65988,7 +67766,7 @@
         <v>1.01743971E+16</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -66080,7 +67858,7 @@
         <v>1.01079589E+16</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -66172,7 +67950,7 @@
         <v>1.01029365E+16</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -66264,7 +68042,7 @@
         <v>1.02252557E+16</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -66356,7 +68134,7 @@
         <v>88824740000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -66448,7 +68226,7 @@
         <v>1.01902935E+16</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -66540,7 +68318,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -66632,7 +68410,7 @@
         <v>1.02555125E+16</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -66724,7 +68502,7 @@
         <v>1.01991925E+16</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -66816,7 +68594,7 @@
         <v>87166590000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -66908,7 +68686,7 @@
         <v>869337520000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -67000,7 +68778,7 @@
         <v>1.02241099E+16</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -67092,7 +68870,7 @@
         <v>1.01637669E+16</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -67184,7 +68962,7 @@
         <v>1.00366933E+16</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -67276,7 +69054,7 @@
         <v>1.02541716E+16</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -67368,7 +69146,7 @@
         <v>866153370000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -67460,7 +69238,7 @@
         <v>1.02041906E+16</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -67552,7 +69330,7 @@
         <v>1.02553662E+16</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -67644,7 +69422,7 @@
         <v>1.02119194E+16</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -67736,7 +69514,7 @@
         <v>1.01423604E+16</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -67828,7 +69606,7 @@
         <v>1019590100000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -67920,7 +69698,7 @@
         <v>1.00786042E+16</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -68012,7 +69790,7 @@
         <v>865580410000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -68104,7 +69882,7 @@
         <v>1.00987917E+16</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -68196,7 +69974,7 @@
         <v>872351010000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -68288,7 +70066,7 @@
         <v>1018444200000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -68380,7 +70158,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -68472,7 +70250,7 @@
         <v>1047889100000000</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -68564,7 +70342,7 @@
         <v>1.00062903E+16</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -68656,7 +70434,7 @@
         <v>974295150000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -68748,7 +70526,7 @@
         <v>1.01774935E+16</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -68840,7 +70618,7 @@
         <v>873019050000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -68932,7 +70710,7 @@
         <v>1.04498533E+16</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -69024,7 +70802,7 @@
         <v>1.01085929E+16</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -69116,7 +70894,7 @@
         <v>960619870000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -69208,7 +70986,7 @@
         <v>1.01154683E+16</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -69300,7 +71078,7 @@
         <v>1.01734462E+16</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -69392,7 +71170,7 @@
         <v>1.06851539E+16</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -69484,7 +71262,7 @@
         <v>897794980000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -69576,7 +71354,7 @@
         <v>871563510000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -69668,7 +71446,7 @@
         <v>1.01819308E+16</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -69760,7 +71538,7 @@
         <v>1.02617053E+16</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -69852,7 +71630,7 @@
         <v>876878560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -69944,7 +71722,7 @@
         <v>1.00472015E+16</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -70036,7 +71814,7 @@
         <v>101122500000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -70128,7 +71906,7 @@
         <v>1.01247574E+16</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -70220,7 +71998,7 @@
         <v>1.00386438E+16</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -70312,7 +72090,7 @@
         <v>1.01020099E+16</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -70404,7 +72182,7 @@
         <v>1034091900000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -70496,7 +72274,7 @@
         <v>98111450000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -70588,7 +72366,7 @@
         <v>994958020000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -70680,7 +72458,7 @@
         <v>1.02278158E+16</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -70772,7 +72550,7 @@
         <v>1.01814675E+16</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -70864,7 +72642,7 @@
         <v>1.01875872E+16</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -70956,7 +72734,7 @@
         <v>871212420000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -71048,7 +72826,7 @@
         <v>994721520000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -71140,7 +72918,7 @@
         <v>1.02066043E+16</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -71232,7 +73010,7 @@
         <v>887781730000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -71324,7 +73102,7 @@
         <v>875176760000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -71416,7 +73194,7 @@
         <v>869939730000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -71508,7 +73286,7 @@
         <v>1.01947796E+16</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -71600,7 +73378,7 @@
         <v>1.01747627E+16</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -71692,7 +73470,7 @@
         <v>871085640000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -71784,7 +73562,7 @@
         <v>1007392300000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -71876,7 +73654,7 @@
         <v>1.02276694E+16</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -71968,7 +73746,7 @@
         <v>1.00723384E+16</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -72060,7 +73838,7 @@
         <v>1.00558568E+16</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -72152,7 +73930,7 @@
         <v>876415310000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -72244,7 +74022,7 @@
         <v>1018802600000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -72336,7 +74114,7 @@
         <v>1.01532587E+16</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -72428,7 +74206,7 @@
         <v>1.02189167E+16</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -72520,7 +74298,7 @@
         <v>1.00245761E+16</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -72612,7 +74390,7 @@
         <v>1.02978623E+16</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -72704,7 +74482,7 @@
         <v>1.01917076E+16</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -72796,7 +74574,7 @@
         <v>1.02213548E+16</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -72888,7 +74666,7 @@
         <v>1.01539902E+16</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -72980,7 +74758,7 @@
         <v>875849680000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -73072,7 +74850,7 @@
         <v>1.00496153E+16</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -73164,7 +74942,7 @@
         <v>879160610000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -73256,7 +75034,7 @@
         <v>1.00094354E+16</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -73348,7 +75126,7 @@
         <v>1.02488078E+16</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -73440,7 +75218,7 @@
         <v>878568160000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -73532,7 +75310,7 @@
         <v>869242430000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -73624,7 +75402,7 @@
         <v>877210140000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -73716,7 +75494,7 @@
         <v>871348950000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -73808,7 +75586,7 @@
         <v>1.01689357E+16</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -73900,7 +75678,7 @@
         <v>1.00895269E+16</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -73992,7 +75770,7 @@
         <v>1.01587932E+16</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -74084,7 +75862,7 @@
         <v>87686880000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -74176,7 +75954,7 @@
         <v>1.02295468E+16</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -74268,7 +76046,7 @@
         <v>963755260000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -74360,7 +76138,7 @@
         <v>1.01118842E+16</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -74452,7 +76230,7 @@
         <v>1.02061655E+16</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -74544,7 +76322,7 @@
         <v>1.00718508E+16</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -74636,7 +76414,7 @@
         <v>996298970000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -74728,7 +76506,7 @@
         <v>1.01752992E+16</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -74820,7 +76598,7 @@
         <v>994992150000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -74912,7 +76690,7 @@
         <v>884860890000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -75004,7 +76782,7 @@
         <v>1.02078477E+16</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -75096,7 +76874,7 @@
         <v>994192450000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -75188,7 +76966,7 @@
         <v>1.01622553E+16</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -75280,7 +77058,7 @@
         <v>1.00628786E+16</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -75372,7 +77150,7 @@
         <v>1.02112611E+16</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -75464,7 +77242,7 @@
         <v>1.02204283E+16</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -75562,13 +77340,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202DAF7-E300-4719-8971-96421E49BB8B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM('Datos 1'!C3:'Datos 1'!C402)</f>
+        <v>1.6633488255900014E+18</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM('Datos 1'!F3:'Datos 1'!F402)</f>
+        <v>1.2286087291600005E+18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM('Datos 1'!I3:I402)</f>
+        <v>2.4192605130999982E+18</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM('Datos 1'!L3:L402)</f>
+        <v>2.3576796220599992E+18</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM('Datos 1'!O3:O402)</f>
+        <v>2.0571962558100009E+18</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM('Datos 1'!R3:R402)</f>
+        <v>2.4284174337800008E+18</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM('Datos 1'!U3:U402)</f>
+        <v>2.4518127285300004E+18</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM('Datos 1'!X3:X402)</f>
+        <v>2.2306331060299999E+18</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM('Datos 1'!AA3:AA402)</f>
+        <v>2.4238686685500001E+18</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM('Datos 1'!AD3:AD402)</f>
+        <v>1.2320160145499991E+18</v>
+      </c>
+      <c r="M2">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1">
+        <f>AVERAGE(C2:L2)</f>
+        <v>2.049284189716E+18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM('Datos 2'!C4:'Datos 2'!C403)/2</f>
+        <v>1.0501288600550002E+18</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM('Datos 2'!F4:'Datos 2'!F403)/2</f>
+        <v>9.9659611448999962E+17</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM('Datos 2'!I3:I403)/2</f>
+        <v>1.2269410889550013E+18</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM('Datos 2'!L3:L403)/2</f>
+        <v>1.2713816782999992E+18</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM('Datos 2'!O3:O403)/2</f>
+        <v>1.11542798993E+18</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM('Datos 2'!R3:R403)/2</f>
+        <v>1.2597713918250004E+18</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM('Datos 2'!U3:U403)/2</f>
+        <v>1.20575430274E+18</v>
+      </c>
+      <c r="J3" s="1">
+        <f>SUM('Datos 2'!X3:X403)/2</f>
+        <v>1.1453239315750003E+18</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUM('Datos 2'!AA3:AA403)/2</f>
+        <v>1.2394212455699999E+18</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SUM('Datos 2'!AD3:AD403)/2</f>
+        <v>1.1899975099700004E+18</v>
+      </c>
+      <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3" si="0">AVERAGE(C3:L3)</f>
+        <v>1.1700744113410002E+18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE('Datos 1'!B3:B402)</f>
+        <v>7.1119999999999983</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE('Datos 1'!E3:E402)</f>
+        <v>7.1487499999999917</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE('Datos 1'!H3:H402)</f>
+        <v>6.2842499999999983</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE('Datos 1'!K3:K402)</f>
+        <v>6.0562499999999977</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE('Datos 1'!N3:N402)</f>
+        <v>6.4080000000000048</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE('Datos 1'!Q3:Q402)</f>
+        <v>5.563750000000006</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE('Datos 1'!T3:T402)</f>
+        <v>5.404750000000007</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE('Datos 1'!W3:W402)</f>
+        <v>5.3525</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE('Datos 1'!Z3:Z402)</f>
+        <v>6.3300000000000018</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE('Datos 1'!AC3:AC402)</f>
+        <v>6.3472499999999998</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(C7:L7)</f>
+        <v>6.2007500000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE('Datos 2'!B3:B403)*2</f>
+        <v>9.7484999999999982</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE('Datos 2'!E3:E403)*2</f>
+        <v>10.447999999999997</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE('Datos 2'!H3:H403)*2</f>
+        <v>15.06999999999997</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE('Datos 2'!K3:K403)*2</f>
+        <v>14.377500000000031</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE('Datos 2'!N3:N403)*2</f>
+        <v>10.934000000000012</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE('Datos 2'!Q3:Q403)*2</f>
+        <v>10.151</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE('Datos 2'!T3:T403)*2</f>
+        <v>8.4454999999999885</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE('Datos 2'!W3:W403)*2</f>
+        <v>10.476999999999993</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE('Datos 2'!Z3:Z403)*2</f>
+        <v>11.827999999999992</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE('Datos 2'!AC3:AC403)*2</f>
+        <v>13.668000000000001</v>
+      </c>
+      <c r="M8">
+        <v>400</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="1">AVERAGE(C8:L8)</f>
+        <v>11.514749999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Experimentos Protocolo Inseguro.xlsx
+++ b/data/Experimentos Protocolo Inseguro.xlsx
@@ -1,38 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresjaveirgonzaleztorres/Documents/INFRACOMP/caso3_infracomp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Cano\Downloads\caso3_infracomp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA41AD-803E-46E2-8732-CEB198BC8AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos 1" sheetId="1" r:id="rId1"/>
     <sheet name="Datos 2" sheetId="2" r:id="rId2"/>
     <sheet name="Graficas" sheetId="3" r:id="rId3"/>
+    <sheet name="Calculos" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226" uniqueCount="463">
   <si>
     <t>Exp 1</t>
   </si>
@@ -1341,12 +1349,93 @@
   <si>
     <t>Memoria prom ex 10</t>
   </si>
+  <si>
+    <t>Datos 1</t>
+  </si>
+  <si>
+    <t>Datos 2</t>
+  </si>
+  <si>
+    <t>Memoria exp 1</t>
+  </si>
+  <si>
+    <t>Tiempo exp 1</t>
+  </si>
+  <si>
+    <t>Memoria exp 2</t>
+  </si>
+  <si>
+    <t>Tiempo exp 2</t>
+  </si>
+  <si>
+    <t>Memoria exp 3</t>
+  </si>
+  <si>
+    <t>Tiempo exp 3</t>
+  </si>
+  <si>
+    <t>Memoria exp 4</t>
+  </si>
+  <si>
+    <t>Tiempo exp 4</t>
+  </si>
+  <si>
+    <t>Memoria exp 5</t>
+  </si>
+  <si>
+    <t>Tiempo exp 5</t>
+  </si>
+  <si>
+    <t>Memoria exp 6</t>
+  </si>
+  <si>
+    <t>Tiempo exp 6</t>
+  </si>
+  <si>
+    <t>Memoria exp 7</t>
+  </si>
+  <si>
+    <t>Tiempo exp 7</t>
+  </si>
+  <si>
+    <t>Memoria exp 8</t>
+  </si>
+  <si>
+    <t>Tiempo exp 8</t>
+  </si>
+  <si>
+    <t>Memoria exp 9</t>
+  </si>
+  <si>
+    <t>Tiempo exp 9</t>
+  </si>
+  <si>
+    <t>Memoria exp 10</t>
+  </si>
+  <si>
+    <t>Tiempo exp 10</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Desv Est</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,8 +1443,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,6 +1469,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1387,12 +1488,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,7 +1513,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1450,7 +1552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1476,7 +1577,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1507,14 +1608,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.049284189716E18</c:v>
+                  <c:v>2.049284189716E+18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.170074411341E18</c:v>
+                  <c:v>1.1700744113410002E+18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0951-45C1-AFCA-D57544EC5465}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1569,7 +1675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38200656"/>
@@ -1628,7 +1734,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38184384"/>
@@ -1669,7 +1775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1681,7 +1787,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1725,7 +1831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1782,14 +1887,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.200750000000001</c:v>
+                  <c:v>6.2007500000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.51475</c:v>
+                  <c:v>11.514749999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABA8-4AF8-A459-1ACF4A78C320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1844,7 +1954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41475760"/>
@@ -1903,7 +2013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41473008"/>
@@ -1944,7 +2054,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3058,7 +3168,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3088,7 +3204,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3368,38 +3490,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD402"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3451,7 +3573,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3635,7 +3757,7 @@
         <v>2.53178791E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3849,7 @@
         <v>965410730000000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3819,7 +3941,7 @@
         <v>996172190000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3911,7 +4033,7 @@
         <v>1.00162621E+16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4003,7 +4125,7 @@
         <v>1.00014872E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4095,7 +4217,7 @@
         <v>992673520000000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4187,7 +4309,7 @@
         <v>989245560000000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4279,7 +4401,7 @@
         <v>1.01570622E+16</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4371,7 +4493,7 @@
         <v>1.01360702E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4463,7 +4585,7 @@
         <v>1.00523216E+16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4555,7 +4677,7 @@
         <v>994877550000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4647,7 +4769,7 @@
         <v>1.01484557E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +4861,7 @@
         <v>998349410000000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4831,7 +4953,7 @@
         <v>1.01873434E+16</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4923,7 +5045,7 @@
         <v>999146660000000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5015,7 +5137,7 @@
         <v>996791470000000</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5107,7 +5229,7 @@
         <v>996381860000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5321,7 @@
         <v>994821480000000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5291,7 +5413,7 @@
         <v>1.00292816E+16</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5383,7 +5505,7 @@
         <v>998610290000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5475,7 +5597,7 @@
         <v>1.00818713E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5567,7 +5689,7 @@
         <v>969643250000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5659,7 +5781,7 @@
         <v>1.00164084E+16</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5751,7 +5873,7 @@
         <v>1.01718371E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5843,7 +5965,7 @@
         <v>1.01496016E+16</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -5935,7 +6057,7 @@
         <v>1.02325701E+16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6027,7 +6149,7 @@
         <v>1.02415423E+16</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6119,7 +6241,7 @@
         <v>1.00564419E+16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6211,7 +6333,7 @@
         <v>933973910000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6303,7 +6425,7 @@
         <v>9800710000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6395,7 +6517,7 @@
         <v>1.00886979E+16</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6487,7 +6609,7 @@
         <v>998805330000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6579,7 +6701,7 @@
         <v>883753980000000</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -6671,7 +6793,7 @@
         <v>971710760000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -6763,7 +6885,7 @@
         <v>996042970000000</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6855,7 +6977,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -6947,7 +7069,7 @@
         <v>1.00845532E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7039,7 +7161,7 @@
         <v>882559320000000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -7131,7 +7253,7 @@
         <v>1.00420816E+16</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7223,7 +7345,7 @@
         <v>1.00294522E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -7315,7 +7437,7 @@
         <v>983735460000000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -7407,7 +7529,7 @@
         <v>981055980000000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7499,7 +7621,7 @@
         <v>990508490000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7591,7 +7713,7 @@
         <v>997298590000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -7683,7 +7805,7 @@
         <v>988823760000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7775,7 +7897,7 @@
         <v>972195940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -7867,7 +7989,7 @@
         <v>996613490000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -7959,7 +8081,7 @@
         <v>979651650000000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -8051,7 +8173,7 @@
         <v>996891420000000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -8143,7 +8265,7 @@
         <v>1.00393753E+16</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -8235,7 +8357,7 @@
         <v>87460380000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -8327,7 +8449,7 @@
         <v>1.01113235E+16</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -8419,7 +8541,7 @@
         <v>1.01138591E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -8511,7 +8633,7 @@
         <v>1.00577097E+16</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -8603,7 +8725,7 @@
         <v>1.07213353E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -8695,7 +8817,7 @@
         <v>930926280000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -8787,7 +8909,7 @@
         <v>984442510000000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -8879,7 +9001,7 @@
         <v>988528760000000</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -8971,7 +9093,7 @@
         <v>999882970000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -9063,7 +9185,7 @@
         <v>994923880000000</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -9155,7 +9277,7 @@
         <v>1.00914286E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -9247,7 +9369,7 @@
         <v>978215610000000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -9339,7 +9461,7 @@
         <v>997476570000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -9431,7 +9553,7 @@
         <v>991871390000000</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -9523,7 +9645,7 @@
         <v>929207420000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -9615,7 +9737,7 @@
         <v>981911760000000</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -9707,7 +9829,7 @@
         <v>1.06218853E+16</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -9799,7 +9921,7 @@
         <v>1.00396679E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -9891,7 +10013,7 @@
         <v>1.00380099E+16</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -9983,7 +10105,7 @@
         <v>1.02320824E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -10075,7 +10197,7 @@
         <v>1.00287452E+16</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -10167,7 +10289,7 @@
         <v>990350010000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -10259,7 +10381,7 @@
         <v>990374390000000</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -10351,7 +10473,7 @@
         <v>98768030000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -10443,7 +10565,7 @@
         <v>983004030000000</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -10535,7 +10657,7 @@
         <v>994114430000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -10627,7 +10749,7 @@
         <v>995394430000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -10719,7 +10841,7 @@
         <v>991912830000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -10811,7 +10933,7 @@
         <v>972586040000000</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -10903,7 +11025,7 @@
         <v>1.00614888E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -10995,7 +11117,7 @@
         <v>94245360000000</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -11087,7 +11209,7 @@
         <v>1.00247954E+16</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -11179,7 +11301,7 @@
         <v>959364250000000</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -11271,7 +11393,7 @@
         <v>976447990000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -11363,7 +11485,7 @@
         <v>993424450000000</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -11455,7 +11577,7 @@
         <v>1.02313266E+16</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -11547,7 +11669,7 @@
         <v>1.00026819E+16</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -11639,7 +11761,7 @@
         <v>1.00626835E+16</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -11731,7 +11853,7 @@
         <v>980373320000000</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -11823,7 +11945,7 @@
         <v>978844640000000</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -11915,7 +12037,7 @@
         <v>1.00212114E+16</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -12007,7 +12129,7 @@
         <v>993948640000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -12099,7 +12221,7 @@
         <v>1.01142979E+16</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -12191,7 +12313,7 @@
         <v>1.00177981E+16</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -12283,7 +12405,7 @@
         <v>1.01038385E+16</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -12375,7 +12497,7 @@
         <v>1.00642683E+16</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -12467,7 +12589,7 @@
         <v>1.02241342E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -12559,7 +12681,7 @@
         <v>992195650000000</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -12651,7 +12773,7 @@
         <v>1.00903315E+16</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -12743,7 +12865,7 @@
         <v>935519660000000</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -12835,7 +12957,7 @@
         <v>98843610000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -12927,7 +13049,7 @@
         <v>1.02447118E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -13019,7 +13141,7 @@
         <v>1.00886005E+16</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -13111,7 +13233,7 @@
         <v>932362320000000</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -13203,7 +13325,7 @@
         <v>986848910000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -13295,7 +13417,7 @@
         <v>980926770000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -13387,7 +13509,7 @@
         <v>975521510000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -13479,7 +13601,7 @@
         <v>9997440000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -13571,7 +13693,7 @@
         <v>1.00306225E+16</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -13663,7 +13785,7 @@
         <v>977823070000000</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -13755,7 +13877,7 @@
         <v>952184050000000</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -13847,7 +13969,7 @@
         <v>994945830000000</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -13939,7 +14061,7 @@
         <v>972620170000000</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -14031,7 +14153,7 @@
         <v>997969060000000</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -14123,7 +14245,7 @@
         <v>1.00499078E+16</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -14215,7 +14337,7 @@
         <v>984298660000000</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -14307,7 +14429,7 @@
         <v>920357130000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -14399,7 +14521,7 @@
         <v>1.01666439E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -14491,7 +14613,7 @@
         <v>1.01610607E+16</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -14583,7 +14705,7 @@
         <v>992093250000000</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -14675,7 +14797,7 @@
         <v>959781160000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -14767,7 +14889,7 @@
         <v>942541370000000</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -14859,7 +14981,7 @@
         <v>915958810000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -14951,7 +15073,7 @@
         <v>1.01164679E+16</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -15043,7 +15165,7 @@
         <v>995416380000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -15135,7 +15257,7 @@
         <v>996491580000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -15227,7 +15349,7 @@
         <v>914415490000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -15319,7 +15441,7 @@
         <v>990106210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -15411,7 +15533,7 @@
         <v>975809210000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -15503,7 +15625,7 @@
         <v>986919610000000</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -15595,7 +15717,7 @@
         <v>955395020000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -15687,7 +15809,7 @@
         <v>998298210000000</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -15779,7 +15901,7 @@
         <v>1.01175163E+16</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -15871,7 +15993,7 @@
         <v>1.02780649E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -15963,7 +16085,7 @@
         <v>987441370000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -16055,7 +16177,7 @@
         <v>97353690000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -16147,7 +16269,7 @@
         <v>97717210000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -16239,7 +16361,7 @@
         <v>1008223700000000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -16331,7 +16453,7 @@
         <v>988126470000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -16423,7 +16545,7 @@
         <v>1014028800000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -16515,7 +16637,7 @@
         <v>1.00468846E+16</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -16607,7 +16729,7 @@
         <v>1.00321828E+16</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -16699,7 +16821,7 @@
         <v>924811540000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -16791,7 +16913,7 @@
         <v>1.00829928E+16</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -16883,7 +17005,7 @@
         <v>1.00619032E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -16975,7 +17097,7 @@
         <v>924019160000000</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -17067,7 +17189,7 @@
         <v>1.00329631E+16</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -17159,7 +17281,7 @@
         <v>992046920000000</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -17251,7 +17373,7 @@
         <v>1013631400000000</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -17343,7 +17465,7 @@
         <v>1.03047865E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -17435,7 +17557,7 @@
         <v>1.01439452E+16</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -17527,7 +17649,7 @@
         <v>1.01655955E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -17619,7 +17741,7 @@
         <v>974173240000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -17711,7 +17833,7 @@
         <v>1.01434332E+16</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -17803,7 +17925,7 @@
         <v>986358850000000</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -17895,7 +18017,7 @@
         <v>1.00612207E+16</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -17987,7 +18109,7 @@
         <v>1.00093135E+16</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -18079,7 +18201,7 @@
         <v>1.00075581E+16</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -18171,7 +18293,7 @@
         <v>998985760000000</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -18263,7 +18385,7 @@
         <v>1.01610362E+16</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -18355,7 +18477,7 @@
         <v>878365790000000</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -18447,7 +18569,7 @@
         <v>997752080000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -18539,7 +18661,7 @@
         <v>1.01118111E+16</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -18631,7 +18753,7 @@
         <v>996832920000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -18723,7 +18845,7 @@
         <v>995843040000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -18815,7 +18937,7 @@
         <v>1.02810151E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -18907,7 +19029,7 @@
         <v>1.00222355E+16</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -18999,7 +19121,7 @@
         <v>1016006100000000</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -19091,7 +19213,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -19183,7 +19305,7 @@
         <v>996055160000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -19275,7 +19397,7 @@
         <v>993731650000000</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -19367,7 +19489,7 @@
         <v>1009771900000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -19459,7 +19581,7 @@
         <v>1.00029989E+16</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -19551,7 +19673,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -19643,7 +19765,7 @@
         <v>957282110000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -19735,7 +19857,7 @@
         <v>1005202900000000</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -19827,7 +19949,7 @@
         <v>1.02804786E+16</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -19919,7 +20041,7 @@
         <v>1.00008777E+16</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -20011,7 +20133,7 @@
         <v>999697680000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -20103,7 +20225,7 @@
         <v>984374240000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -20195,7 +20317,7 @@
         <v>996503770000000</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -20287,7 +20409,7 @@
         <v>1.01846371E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -20379,7 +20501,7 @@
         <v>1.00811155E+16</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -20471,7 +20593,7 @@
         <v>1.01955598E+16</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -20563,7 +20685,7 @@
         <v>1.00090697E+16</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -20655,7 +20777,7 @@
         <v>1.00285257E+16</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -20747,7 +20869,7 @@
         <v>990435340000000</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -20839,7 +20961,7 @@
         <v>1.01481631E+16</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -20931,7 +21053,7 @@
         <v>953229990000000</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -21023,7 +21145,7 @@
         <v>98424990000000</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -21115,7 +21237,7 @@
         <v>998958930000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -21207,7 +21329,7 @@
         <v>992227350000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -21299,7 +21421,7 @@
         <v>1.00743619E+16</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -21391,7 +21513,7 @@
         <v>986058960000000</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -21483,7 +21605,7 @@
         <v>968492470000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -21575,7 +21697,7 @@
         <v>952047510000000</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -21667,7 +21789,7 @@
         <v>1.00073387E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -21759,7 +21881,7 @@
         <v>879575090000000</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -21851,7 +21973,7 @@
         <v>1.00074362E+16</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -21943,7 +22065,7 @@
         <v>99979520000000</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -22035,7 +22157,7 @@
         <v>991427660000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -22127,7 +22249,7 @@
         <v>995316410000000</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -22219,7 +22341,7 @@
         <v>1.13827421E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -22311,7 +22433,7 @@
         <v>1.02094569E+16</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -22403,7 +22525,7 @@
         <v>1.01010103E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -22495,7 +22617,7 @@
         <v>1.01423849E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -22587,7 +22709,7 @@
         <v>993887690000000</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -22679,7 +22801,7 @@
         <v>930653220000000</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -22771,7 +22893,7 @@
         <v>919976790000000</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -22863,7 +22985,7 @@
         <v>911994460000000</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -22955,7 +23077,7 @@
         <v>997596030000000</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -23047,7 +23169,7 @@
         <v>989443040000000</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -23139,7 +23261,7 @@
         <v>991132640000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -23231,7 +23353,7 @@
         <v>937106860000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -23323,7 +23445,7 @@
         <v>1.00424716E+16</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -23415,7 +23537,7 @@
         <v>102453700000000</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -23507,7 +23629,7 @@
         <v>1.01152732E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -23599,7 +23721,7 @@
         <v>1.01656443E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -23691,7 +23813,7 @@
         <v>998900420000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -23783,7 +23905,7 @@
         <v>951437990000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -23875,7 +23997,7 @@
         <v>1.02698973E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -23967,7 +24089,7 @@
         <v>1.01958036E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -24059,7 +24181,7 @@
         <v>1025214800000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -24151,7 +24273,7 @@
         <v>1.01692283E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -24243,7 +24365,7 @@
         <v>910490150000000</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -24335,7 +24457,7 @@
         <v>907681470000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -24427,7 +24549,7 @@
         <v>910112250000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -24519,7 +24641,7 @@
         <v>827326670000000</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -24611,7 +24733,7 @@
         <v>812183660000000</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -24703,7 +24825,7 @@
         <v>813112570000000</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -24795,7 +24917,7 @@
         <v>825332320000000</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -24887,7 +25009,7 @@
         <v>827765540000000</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -24979,7 +25101,7 @@
         <v>825210410000000</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -25071,7 +25193,7 @@
         <v>81850320000000</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -25163,7 +25285,7 @@
         <v>813673330000000</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -25255,7 +25377,7 @@
         <v>824203470000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -25347,7 +25469,7 @@
         <v>91324520000000</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -25439,7 +25561,7 @@
         <v>93731410000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -25531,7 +25653,7 @@
         <v>80826320000000</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -25623,7 +25745,7 @@
         <v>943243550000000</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -25715,7 +25837,7 @@
         <v>808294890000000</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -25807,7 +25929,7 @@
         <v>827143810000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -25899,7 +26021,7 @@
         <v>831003320000000</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -25991,7 +26113,7 @@
         <v>808348540000000</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -26083,7 +26205,7 @@
         <v>826156390000000</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -26175,7 +26297,7 @@
         <v>830903360000000</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -26267,7 +26389,7 @@
         <v>812110510000000</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -26359,7 +26481,7 @@
         <v>817493830000000</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -26451,7 +26573,7 @@
         <v>819449190000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -26543,7 +26665,7 @@
         <v>821487430000000</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -26635,7 +26757,7 @@
         <v>820714560000000</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -26727,7 +26849,7 @@
         <v>816828230000000</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -26819,7 +26941,7 @@
         <v>821584960000000</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -26911,7 +27033,7 @@
         <v>833546260000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -27003,7 +27125,7 @@
         <v>812807810000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -27095,7 +27217,7 @@
         <v>827353490000000</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -27187,7 +27309,7 @@
         <v>850422760000000</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -27279,7 +27401,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -27371,7 +27493,7 @@
         <v>827095060000000</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -27463,7 +27585,7 @@
         <v>818481260000000</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -27555,7 +27677,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -27647,7 +27769,7 @@
         <v>834004620000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -27739,7 +27861,7 @@
         <v>810252680000000</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -27831,7 +27953,7 @@
         <v>827304730000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -27923,7 +28045,7 @@
         <v>816521030000000</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -28015,7 +28137,7 @@
         <v>822830830000000</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -28107,7 +28229,7 @@
         <v>822513880000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -28199,7 +28321,7 @@
         <v>820873030000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -28291,7 +28413,7 @@
         <v>969565240000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -28383,7 +28505,7 @@
         <v>875737520000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -28475,7 +28597,7 @@
         <v>817218320000000</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -28567,7 +28689,7 @@
         <v>826046680000000</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -28659,7 +28781,7 @@
         <v>847584820000000</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -28751,7 +28873,7 @@
         <v>811510750000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -28843,7 +28965,7 @@
         <v>967890270000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -28935,7 +29057,7 @@
         <v>836452470000000</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -29027,7 +29149,7 @@
         <v>823491550000000</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -29119,7 +29241,7 @@
         <v>953695670000000</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -29211,7 +29333,7 @@
         <v>92962190000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -29303,7 +29425,7 @@
         <v>1027231100000000</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -29395,7 +29517,7 @@
         <v>1.01235628E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -29487,7 +29609,7 @@
         <v>952271810000000</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -29579,7 +29701,7 @@
         <v>825715090000000</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -29671,7 +29793,7 @@
         <v>1018239400000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -29763,7 +29885,7 @@
         <v>830020780000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -29855,7 +29977,7 @@
         <v>935748840000000</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -29947,7 +30069,7 @@
         <v>1023903100000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -30039,7 +30161,7 @@
         <v>810574510000000</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -30131,7 +30253,7 @@
         <v>812776120000000</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -30223,7 +30345,7 @@
         <v>820185490000000</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -30315,7 +30437,7 @@
         <v>816345490000000</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -30407,7 +30529,7 @@
         <v>818044840000000</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -30499,7 +30621,7 @@
         <v>817271960000000</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -30591,7 +30713,7 @@
         <v>811835010000000</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -30683,7 +30805,7 @@
         <v>831883470000000</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -30775,7 +30897,7 @@
         <v>941129720000000</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -30867,7 +30989,7 @@
         <v>838351750000000</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -30959,7 +31081,7 @@
         <v>902846730000000</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -31051,7 +31173,7 @@
         <v>806315160000000</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -31143,7 +31265,7 @@
         <v>827646070000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -31235,7 +31357,7 @@
         <v>877680680000000</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -31327,7 +31449,7 @@
         <v>81220560000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -31419,7 +31541,7 @@
         <v>834565380000000</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -31511,7 +31633,7 @@
         <v>811783810000000</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -31603,7 +31725,7 @@
         <v>820907160000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -31695,7 +31817,7 @@
         <v>81988560000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -31787,7 +31909,7 @@
         <v>866740950000000</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -31879,7 +32001,7 @@
         <v>954470980000000</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -31971,7 +32093,7 @@
         <v>903236810000000</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -32063,7 +32185,7 @@
         <v>827977650000000</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -32155,7 +32277,7 @@
         <v>80628590000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -32247,7 +32369,7 @@
         <v>916592710000000</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -32339,7 +32461,7 @@
         <v>870988110000000</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -32431,7 +32553,7 @@
         <v>810928040000000</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -32523,7 +32645,7 @@
         <v>83001590000000</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -32615,7 +32737,7 @@
         <v>814297490000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -32707,7 +32829,7 @@
         <v>98087070000000</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -32799,7 +32921,7 @@
         <v>824337570000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -32891,7 +33013,7 @@
         <v>825317680000000</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -32983,7 +33105,7 @@
         <v>820441490000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -33075,7 +33197,7 @@
         <v>840765470000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -33167,7 +33289,7 @@
         <v>980682960000000</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -33259,7 +33381,7 @@
         <v>1.01078858E+16</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -33351,7 +33473,7 @@
         <v>934551730000000</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -33443,7 +33565,7 @@
         <v>806129860000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -33535,7 +33657,7 @@
         <v>812729790000000</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -33627,7 +33749,7 @@
         <v>804998580000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -33719,7 +33841,7 @@
         <v>826965840000000</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -33811,7 +33933,7 @@
         <v>824635020000000</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -33903,7 +34025,7 @@
         <v>81225680000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -33995,7 +34117,7 @@
         <v>825551740000000</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -34087,7 +34209,7 @@
         <v>819719820000000</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -34179,7 +34301,7 @@
         <v>909022420000000</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -34271,7 +34393,7 @@
         <v>825646830000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -34363,7 +34485,7 @@
         <v>9553170000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -34455,7 +34577,7 @@
         <v>809721180000000</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -34547,7 +34669,7 @@
         <v>817298780000000</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -34639,7 +34761,7 @@
         <v>813585560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -34731,7 +34853,7 @@
         <v>822945410000000</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -34823,7 +34945,7 @@
         <v>827409570000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -34915,7 +35037,7 @@
         <v>807699990000000</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -35007,7 +35129,7 @@
         <v>816401570000000</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -35099,7 +35221,7 @@
         <v>80843630000000</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -35191,7 +35313,7 @@
         <v>81020880000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -35283,7 +35405,7 @@
         <v>826804920000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -35375,7 +35497,7 @@
         <v>830386490000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -35467,7 +35589,7 @@
         <v>815248350000000</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -35559,7 +35681,7 @@
         <v>893013880000000</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -35651,7 +35773,7 @@
         <v>817523090000000</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -35743,7 +35865,7 @@
         <v>823747550000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -35835,7 +35957,7 @@
         <v>823201420000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -35927,7 +36049,7 @@
         <v>834896970000000</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -36019,7 +36141,7 @@
         <v>812859010000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -36111,7 +36233,7 @@
         <v>808833720000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -36203,7 +36325,7 @@
         <v>821336270000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -36295,7 +36417,7 @@
         <v>813726970000000</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -36387,7 +36509,7 @@
         <v>807483010000000</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -36479,7 +36601,7 @@
         <v>829642870000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -36571,7 +36693,7 @@
         <v>810813450000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -36663,7 +36785,7 @@
         <v>879665290000000</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -36755,7 +36877,7 @@
         <v>870156730000000</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -36847,7 +36969,7 @@
         <v>883849070000000</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -36939,7 +37061,7 @@
         <v>822255430000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -37031,7 +37153,7 @@
         <v>841952820000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -37123,7 +37245,7 @@
         <v>813500230000000</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -37215,7 +37337,7 @@
         <v>941746550000000</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -37307,7 +37429,7 @@
         <v>889698070000000</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -37399,7 +37521,7 @@
         <v>874901250000000</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -37491,7 +37613,7 @@
         <v>813151590000000</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -37583,7 +37705,7 @@
         <v>814168270000000</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -37675,7 +37797,7 @@
         <v>804869370000000</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -37767,7 +37889,7 @@
         <v>956472660000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -37859,7 +37981,7 @@
         <v>81719150000000</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -37951,7 +38073,7 @@
         <v>816630750000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -38043,7 +38165,7 @@
         <v>880889220000000</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -38135,7 +38257,7 @@
         <v>818378860000000</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -38227,7 +38349,7 @@
         <v>811576570000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -38319,7 +38441,7 @@
         <v>913418310000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -38411,7 +38533,7 @@
         <v>853158310000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -38503,7 +38625,7 @@
         <v>886231090000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -38595,7 +38717,7 @@
         <v>872616760000000</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -38687,7 +38809,7 @@
         <v>894822940000000</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -38779,7 +38901,7 @@
         <v>813163770000000</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -38871,7 +38993,7 @@
         <v>928051760000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -38963,7 +39085,7 @@
         <v>961870610000000</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -39055,7 +39177,7 @@
         <v>933995850000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -39147,7 +39269,7 @@
         <v>892596960000000</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -39239,7 +39361,7 @@
         <v>824596010000000</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -39331,7 +39453,7 @@
         <v>806371230000000</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -39423,7 +39545,7 @@
         <v>817111050000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -39515,7 +39637,7 @@
         <v>868879150000000</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -39607,7 +39729,7 @@
         <v>850164330000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -39699,7 +39821,7 @@
         <v>817532840000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -39791,7 +39913,7 @@
         <v>946456950000000</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -39883,7 +40005,7 @@
         <v>940178850000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -39975,7 +40097,7 @@
         <v>824171780000000</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -40067,7 +40189,7 @@
         <v>824037690000000</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -40159,7 +40281,7 @@
         <v>822530940000000</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -40251,7 +40373,7 @@
         <v>820763320000000</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -40349,48 +40471,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -40442,7 +40564,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -40534,7 +40656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -40626,7 +40748,7 @@
         <v>2.57098762E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40718,7 +40840,7 @@
         <v>2.57040492E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40810,7 +40932,7 @@
         <v>891048770000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -40902,7 +41024,7 @@
         <v>915139610000000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -40994,7 +41116,7 @@
         <v>1.00571003E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -41086,7 +41208,7 @@
         <v>1.02366173E+16</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -41178,7 +41300,7 @@
         <v>1.01058622E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -41270,7 +41392,7 @@
         <v>961224510000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -41362,7 +41484,7 @@
         <v>1.01502599E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -41454,7 +41576,7 @@
         <v>1033694500000000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -41546,7 +41668,7 @@
         <v>891707060000000</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -41638,7 +41760,7 @@
         <v>880406480000000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -41730,7 +41852,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -41822,7 +41944,7 @@
         <v>989862390000000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -41914,7 +42036,7 @@
         <v>1.00697539E+16</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -42006,7 +42128,7 @@
         <v>1.02683369E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -42098,7 +42220,7 @@
         <v>986407610000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -42190,7 +42312,7 @@
         <v>1.01195399E+16</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -42282,7 +42404,7 @@
         <v>896054180000000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -42374,7 +42496,7 @@
         <v>1030846800000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -42466,7 +42588,7 @@
         <v>1.00577829E+16</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -42558,7 +42680,7 @@
         <v>1.02739689E+16</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -42650,7 +42772,7 @@
         <v>1013753300000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -42742,7 +42864,7 @@
         <v>1.04878631E+16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -42834,7 +42956,7 @@
         <v>996023470000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -42926,7 +43048,7 @@
         <v>971976520000000</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -43018,7 +43140,7 @@
         <v>989979420000000</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -43110,7 +43232,7 @@
         <v>99836160000000</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -43202,7 +43324,7 @@
         <v>1005817300000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -43294,7 +43416,7 @@
         <v>995277410000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -43386,7 +43508,7 @@
         <v>995175010000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -43478,7 +43600,7 @@
         <v>99561630000000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -43570,7 +43692,7 @@
         <v>1.01795414E+16</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -43662,7 +43784,7 @@
         <v>976623530000000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -43754,7 +43876,7 @@
         <v>1.00477379E+16</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -43846,7 +43968,7 @@
         <v>999458740000000</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -43938,7 +44060,7 @@
         <v>1.01617921E+16</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -44030,7 +44152,7 @@
         <v>1.17186875E+16</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -44122,7 +44244,7 @@
         <v>993765790000000</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -44214,7 +44336,7 @@
         <v>1.01210759E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -44306,7 +44428,7 @@
         <v>1.00001463E+16</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -44398,7 +44520,7 @@
         <v>1.00013653E+16</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -44490,7 +44612,7 @@
         <v>877324730000000</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -44582,7 +44704,7 @@
         <v>876978510000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -44674,7 +44796,7 @@
         <v>866580030000000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -44766,7 +44888,7 @@
         <v>964771940000000</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -44858,7 +44980,7 @@
         <v>889744390000000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -44950,7 +45072,7 @@
         <v>1.00305981E+16</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -45042,7 +45164,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -45134,7 +45256,7 @@
         <v>938879350000000</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -45226,7 +45348,7 @@
         <v>991096080000000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -45318,7 +45440,7 @@
         <v>99998780000000</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -45410,7 +45532,7 @@
         <v>1.01202225E+16</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -45502,7 +45624,7 @@
         <v>942712040000000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -45594,7 +45716,7 @@
         <v>1.01647665E+16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -45686,7 +45808,7 @@
         <v>100332800000000</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -45778,7 +45900,7 @@
         <v>1.00790431E+16</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -45870,7 +45992,7 @@
         <v>1.00643901E+16</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -45962,7 +46084,7 @@
         <v>984581480000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -46054,7 +46176,7 @@
         <v>1.01252451E+16</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -46146,7 +46268,7 @@
         <v>1.01970957E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -46238,7 +46360,7 @@
         <v>1.02433708E+16</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -46330,7 +46452,7 @@
         <v>1012197800000000</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -46422,7 +46544,7 @@
         <v>1.01289997E+16</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -46514,7 +46636,7 @@
         <v>941078520000000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -46606,7 +46728,7 @@
         <v>1.02544885E+16</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -46698,7 +46820,7 @@
         <v>998946740000000</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -46790,7 +46912,7 @@
         <v>1.00817494E+16</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -46882,7 +47004,7 @@
         <v>1028542800000000</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -46974,7 +47096,7 @@
         <v>1.00438126E+16</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -47066,7 +47188,7 @@
         <v>994097360000000</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -47158,7 +47280,7 @@
         <v>948441570000000</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -47250,7 +47372,7 @@
         <v>1.00936473E+16</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -47342,7 +47464,7 @@
         <v>993085560000000</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -47434,7 +47556,7 @@
         <v>1.00734842E+16</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -47526,7 +47648,7 @@
         <v>979888140000000</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -47618,7 +47740,7 @@
         <v>943882330000000</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -47710,7 +47832,7 @@
         <v>988767690000000</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -47802,7 +47924,7 @@
         <v>1.01979978E+16</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -47894,7 +48016,7 @@
         <v>1.02609738E+16</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -47986,7 +48108,7 @@
         <v>1.01715201E+16</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -48078,7 +48200,7 @@
         <v>999841530000000</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -48170,7 +48292,7 @@
         <v>1.01208808E+16</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -48262,7 +48384,7 @@
         <v>1004198400000000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -48354,7 +48476,7 @@
         <v>1.00333044E+16</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -48446,7 +48568,7 @@
         <v>997449750000000</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -48538,7 +48660,7 @@
         <v>972817660000000</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -48630,7 +48752,7 @@
         <v>988014310000000</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -48722,7 +48844,7 @@
         <v>1.00706316E+16</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -48814,7 +48936,7 @@
         <v>1.00224548E+16</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -48906,7 +49028,7 @@
         <v>993244040000000</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -48998,7 +49120,7 @@
         <v>976194430000000</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -49090,7 +49212,7 @@
         <v>1015186900000000</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -49182,7 +49304,7 @@
         <v>992129820000000</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -49274,7 +49396,7 @@
         <v>997210810000000</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -49366,7 +49488,7 @@
         <v>994316790000000</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -49458,7 +49580,7 @@
         <v>1.00827978E+16</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -49550,7 +49672,7 @@
         <v>1.00544671E+16</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -49642,7 +49764,7 @@
         <v>979290810000000</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -49734,7 +49856,7 @@
         <v>1.14665395E+16</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -49826,7 +49948,7 @@
         <v>873175090000000</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -49918,7 +50040,7 @@
         <v>1.01725441E+16</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -50010,7 +50132,7 @@
         <v>995921060000000</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -50102,7 +50224,7 @@
         <v>1.00920138E+16</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -50194,7 +50316,7 @@
         <v>997074290000000</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -50286,7 +50408,7 @@
         <v>987967990000000</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -50378,7 +50500,7 @@
         <v>98298940000000</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -50470,7 +50592,7 @@
         <v>99295390000000</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -50562,7 +50684,7 @@
         <v>990637710000000</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -50654,7 +50776,7 @@
         <v>1.14329182E+16</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -50746,7 +50868,7 @@
         <v>1.00832854E+16</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -50838,7 +50960,7 @@
         <v>1.01555993E+16</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -50930,7 +51052,7 @@
         <v>1.01408976E+16</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -51022,7 +51144,7 @@
         <v>1.02681663E+16</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -51114,7 +51236,7 @@
         <v>985673750000000</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -51206,7 +51328,7 @@
         <v>1.00408137E+16</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -51298,7 +51420,7 @@
         <v>1001453100000000</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -51390,7 +51512,7 @@
         <v>1.00989624E+16</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -51482,7 +51604,7 @@
         <v>99126430000000</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -51574,7 +51696,7 @@
         <v>1.00394484E+16</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -51666,7 +51788,7 @@
         <v>1001145900000000</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -51758,7 +51880,7 @@
         <v>1.01385326E+16</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -51850,7 +51972,7 @@
         <v>993734090000000</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -51942,7 +52064,7 @@
         <v>992554060000000</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -52034,7 +52156,7 @@
         <v>991729980000000</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -52126,7 +52248,7 @@
         <v>990981480000000</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -52218,7 +52340,7 @@
         <v>996713440000000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -52310,7 +52432,7 @@
         <v>986049210000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -52402,7 +52524,7 @@
         <v>1.00435688E+16</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -52494,7 +52616,7 @@
         <v>1.00472503E+16</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -52586,7 +52708,7 @@
         <v>987685180000000</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -52678,7 +52800,7 @@
         <v>1.02046538E+16</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -52770,7 +52892,7 @@
         <v>989813630000000</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -52862,7 +52984,7 @@
         <v>1.00747276E+16</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -52954,7 +53076,7 @@
         <v>99887360000000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -53046,7 +53168,7 @@
         <v>1005388200000000</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -53138,7 +53260,7 @@
         <v>994689830000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -53230,7 +53352,7 @@
         <v>1.01860512E+16</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -53322,7 +53444,7 @@
         <v>995518780000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -53414,7 +53536,7 @@
         <v>998222620000000</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -53506,7 +53628,7 @@
         <v>1002540500000000</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -53598,7 +53720,7 @@
         <v>992412640000000</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -53690,7 +53812,7 @@
         <v>1007782400000000</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -53782,7 +53904,7 @@
         <v>873711470000000</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -53874,7 +53996,7 @@
         <v>1.00699002E+16</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -53966,7 +54088,7 @@
         <v>1.01241479E+16</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -54058,7 +54180,7 @@
         <v>1000409600000000</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -54150,7 +54272,7 @@
         <v>1.00500541E+16</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -54242,7 +54364,7 @@
         <v>1.00790918E+16</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -54334,7 +54456,7 @@
         <v>1.00039741E+16</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -54426,7 +54548,7 @@
         <v>993390320000000</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -54518,7 +54640,7 @@
         <v>1.00471772E+16</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -54610,7 +54732,7 @@
         <v>972490960000000</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -54702,7 +54824,7 @@
         <v>990632840000000</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -54794,7 +54916,7 @@
         <v>1.00104107E+16</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -54886,7 +55008,7 @@
         <v>979132330000000</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -54978,7 +55100,7 @@
         <v>990147650000000</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -55070,7 +55192,7 @@
         <v>999541640000000</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -55162,7 +55284,7 @@
         <v>1.01175407E+16</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -55254,7 +55376,7 @@
         <v>990847390000000</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -55346,7 +55468,7 @@
         <v>1.00557593E+16</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -55438,7 +55560,7 @@
         <v>998600530000000</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -55530,7 +55652,7 @@
         <v>984223070000000</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -55622,7 +55744,7 @@
         <v>992783230000000</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -55714,7 +55836,7 @@
         <v>987653480000000</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -55806,7 +55928,7 @@
         <v>1.01845883E+16</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -55898,7 +56020,7 @@
         <v>1008235900000000</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -55990,7 +56112,7 @@
         <v>1.00753859E+16</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -56082,7 +56204,7 @@
         <v>987694930000000</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -56174,7 +56296,7 @@
         <v>998702930000000</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -56266,7 +56388,7 @@
         <v>1.00728747E+16</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -56358,7 +56480,7 @@
         <v>929346390000000</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -56450,7 +56572,7 @@
         <v>998554210000000</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -56542,7 +56664,7 @@
         <v>991047310000000</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -56634,7 +56756,7 @@
         <v>990042810000000</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -56726,7 +56848,7 @@
         <v>1.01028633E+16</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -56818,7 +56940,7 @@
         <v>904750870000000</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -56910,7 +57032,7 @@
         <v>985420190000000</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -57002,7 +57124,7 @@
         <v>989347960000000</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -57094,7 +57216,7 @@
         <v>996494010000000</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -57186,7 +57308,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -57278,7 +57400,7 @@
         <v>1.00324998E+16</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -57370,7 +57492,7 @@
         <v>938854980000000</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -57462,7 +57584,7 @@
         <v>9106340000000</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -57554,7 +57676,7 @@
         <v>977169660000000</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -57646,7 +57768,7 @@
         <v>997396110000000</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -57738,7 +57860,7 @@
         <v>1.01089098E+16</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -57830,7 +57952,7 @@
         <v>986792830000000</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -57922,7 +58044,7 @@
         <v>1.00561737E+16</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -58014,7 +58136,7 @@
         <v>1.00178713E+16</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -58106,7 +58228,7 @@
         <v>988041140000000</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -58198,7 +58320,7 @@
         <v>994960450000000</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -58290,7 +58412,7 @@
         <v>981848370000000</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -58382,7 +58504,7 @@
         <v>1.00875277E+16</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -58474,7 +58596,7 @@
         <v>993473210000000</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -58566,7 +58688,7 @@
         <v>1.00412282E+16</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -58658,7 +58780,7 @@
         <v>1.01990219E+16</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -58750,7 +58872,7 @@
         <v>1.01564771E+16</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -58842,7 +58964,7 @@
         <v>994207080000000</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -58934,7 +59056,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -59026,7 +59148,7 @@
         <v>874811040000000</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -59118,7 +59240,7 @@
         <v>1.01553311E+16</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -59210,7 +59332,7 @@
         <v>1.01558919E+16</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -59302,7 +59424,7 @@
         <v>988053320000000</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -59394,7 +59516,7 @@
         <v>1.00036571E+16</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -59486,7 +59608,7 @@
         <v>1.03600337E+16</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -59578,7 +59700,7 @@
         <v>1.02111148E+16</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -59670,7 +59792,7 @@
         <v>1.00248442E+16</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -59762,7 +59884,7 @@
         <v>1.00332312E+16</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -59854,7 +59976,7 @@
         <v>1.02145769E+16</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -59946,7 +60068,7 @@
         <v>1.00710705E+16</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -60038,7 +60160,7 @@
         <v>1.02006309E+16</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -60130,7 +60252,7 @@
         <v>968202340000000</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -60222,7 +60344,7 @@
         <v>9644940000000</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -60314,7 +60436,7 @@
         <v>965532630000000</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -60406,7 +60528,7 @@
         <v>1.00897219E+16</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -60498,7 +60620,7 @@
         <v>1.00951833E+16</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -60590,7 +60712,7 @@
         <v>1.00997669E+16</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -60682,7 +60804,7 @@
         <v>911414190000000</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -60774,7 +60896,7 @@
         <v>933296120000000</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -60866,7 +60988,7 @@
         <v>1.01394348E+16</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -60958,7 +61080,7 @@
         <v>1.01179064E+16</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -61050,7 +61172,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -61142,7 +61264,7 @@
         <v>1.00751422E+16</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -61234,7 +61356,7 @@
         <v>1.02633144E+16</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -61326,7 +61448,7 @@
         <v>863739650000000</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -61418,7 +61540,7 @@
         <v>1011071400000000</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -61510,7 +61632,7 @@
         <v>1.02316435E+16</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -61602,7 +61724,7 @@
         <v>1.00627566E+16</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -61694,7 +61816,7 @@
         <v>1.02130897E+16</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -61786,7 +61908,7 @@
         <v>1.03011537E+16</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -61878,7 +62000,7 @@
         <v>1.00585631E+16</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -61970,7 +62092,7 @@
         <v>1.01696915E+16</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -62062,7 +62184,7 @@
         <v>1.02712626E+16</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -62154,7 +62276,7 @@
         <v>1.01465296E+16</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -62246,7 +62368,7 @@
         <v>1004013100000000</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -62338,7 +62460,7 @@
         <v>1.02357152E+16</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -62430,7 +62552,7 @@
         <v>869786130000000</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -62522,7 +62644,7 @@
         <v>1.00698514E+16</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -62614,7 +62736,7 @@
         <v>1.02078965E+16</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -62706,7 +62828,7 @@
         <v>1.02002897E+16</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -62798,7 +62920,7 @@
         <v>1022910800000000</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -62890,7 +63012,7 @@
         <v>1.02443217E+16</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -62982,7 +63104,7 @@
         <v>1.02375437E+16</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -63074,7 +63196,7 @@
         <v>1.01410439E+16</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -63166,7 +63288,7 @@
         <v>1.01384108E+16</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -63258,7 +63380,7 @@
         <v>1.01693746E+16</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -63350,7 +63472,7 @@
         <v>1.01007665E+16</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -63442,7 +63564,7 @@
         <v>877946440000000</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -63534,7 +63656,7 @@
         <v>1.01761281E+16</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -63626,7 +63748,7 @@
         <v>1.02181366E+16</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -63718,7 +63840,7 @@
         <v>1.01076663E+16</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -63810,7 +63932,7 @@
         <v>1.01992657E+16</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -63902,7 +64024,7 @@
         <v>1007979900000000</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -63994,7 +64116,7 @@
         <v>874469720000000</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -64086,7 +64208,7 @@
         <v>1.01564283E+16</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -64178,7 +64300,7 @@
         <v>1.01626699E+16</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -64270,7 +64392,7 @@
         <v>1.02496611E+16</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -64362,7 +64484,7 @@
         <v>1.01127132E+16</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -64454,7 +64576,7 @@
         <v>1.01987293E+16</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -64546,7 +64668,7 @@
         <v>1.02281327E+16</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -64638,7 +64760,7 @@
         <v>877673370000000</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -64730,7 +64852,7 @@
         <v>1.01842713E+16</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -64822,7 +64944,7 @@
         <v>1009350100000000</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -64914,7 +65036,7 @@
         <v>1.02575605E+16</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -65006,7 +65128,7 @@
         <v>1.02345449E+16</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -65098,7 +65220,7 @@
         <v>879701870000000</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -65190,7 +65312,7 @@
         <v>871614710000000</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -65282,7 +65404,7 @@
         <v>866024150000000</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -65374,7 +65496,7 @@
         <v>885350940000000</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -65466,7 +65588,7 @@
         <v>1.02482714E+16</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -65558,7 +65680,7 @@
         <v>1.02639972E+16</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -65650,7 +65772,7 @@
         <v>1.02296443E+16</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -65742,7 +65864,7 @@
         <v>873167770000000</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -65834,7 +65956,7 @@
         <v>87016160000000</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -65926,7 +66048,7 @@
         <v>1.02772603E+16</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -66018,7 +66140,7 @@
         <v>1.01514546E+16</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -66110,7 +66232,7 @@
         <v>1.00635612E+16</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -66202,7 +66324,7 @@
         <v>1025356200000000</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -66294,7 +66416,7 @@
         <v>1.01611094E+16</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -66386,7 +66508,7 @@
         <v>1.02006066E+16</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -66478,7 +66600,7 @@
         <v>1.00515901E+16</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -66570,7 +66692,7 @@
         <v>1.04594105E+16</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -66662,7 +66784,7 @@
         <v>960161490000000</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -66754,7 +66876,7 @@
         <v>874620880000000</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -66846,7 +66968,7 @@
         <v>1.01733974E+16</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -66938,7 +67060,7 @@
         <v>99946850000000</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -67030,7 +67152,7 @@
         <v>1.02032885E+16</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -67122,7 +67244,7 @@
         <v>1.01920489E+16</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -67214,7 +67336,7 @@
         <v>1.00120198E+16</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -67306,7 +67428,7 @@
         <v>1.01005227E+16</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -67398,7 +67520,7 @@
         <v>1.01936824E+16</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -67490,7 +67612,7 @@
         <v>1.01525518E+16</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -67582,7 +67704,7 @@
         <v>1.02301807E+16</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -67674,7 +67796,7 @@
         <v>1.01594759E+16</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -67766,7 +67888,7 @@
         <v>1.01743971E+16</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -67858,7 +67980,7 @@
         <v>1.01079589E+16</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -67950,7 +68072,7 @@
         <v>1.01029365E+16</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -68042,7 +68164,7 @@
         <v>1.02252557E+16</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -68134,7 +68256,7 @@
         <v>88824740000000</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -68226,7 +68348,7 @@
         <v>1.01902935E+16</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -68318,7 +68440,7 @@
         <v>871604950000000</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -68410,7 +68532,7 @@
         <v>1.02555125E+16</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -68502,7 +68624,7 @@
         <v>1.01991925E+16</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -68594,7 +68716,7 @@
         <v>87166590000000</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -68686,7 +68808,7 @@
         <v>869337520000000</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -68778,7 +68900,7 @@
         <v>1.02241099E+16</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -68870,7 +68992,7 @@
         <v>1.01637669E+16</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -68962,7 +69084,7 @@
         <v>1.00366933E+16</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -69054,7 +69176,7 @@
         <v>1.02541716E+16</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -69146,7 +69268,7 @@
         <v>866153370000000</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -69238,7 +69360,7 @@
         <v>1.02041906E+16</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -69330,7 +69452,7 @@
         <v>1.02553662E+16</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -69422,7 +69544,7 @@
         <v>1.02119194E+16</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -69514,7 +69636,7 @@
         <v>1.01423604E+16</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -69606,7 +69728,7 @@
         <v>1019590100000000</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -69698,7 +69820,7 @@
         <v>1.00786042E+16</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -69790,7 +69912,7 @@
         <v>865580410000000</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -69882,7 +70004,7 @@
         <v>1.00987917E+16</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -69974,7 +70096,7 @@
         <v>872351010000000</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -70066,7 +70188,7 @@
         <v>1018444200000000</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -70158,7 +70280,7 @@
         <v>1.01812481E+16</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -70250,7 +70372,7 @@
         <v>1047889100000000</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -70342,7 +70464,7 @@
         <v>1.00062903E+16</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -70434,7 +70556,7 @@
         <v>974295150000000</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -70526,7 +70648,7 @@
         <v>1.01774935E+16</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -70618,7 +70740,7 @@
         <v>873019050000000</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -70710,7 +70832,7 @@
         <v>1.04498533E+16</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -70802,7 +70924,7 @@
         <v>1.01085929E+16</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -70894,7 +71016,7 @@
         <v>960619870000000</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -70986,7 +71108,7 @@
         <v>1.01154683E+16</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -71078,7 +71200,7 @@
         <v>1.01734462E+16</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -71170,7 +71292,7 @@
         <v>1.06851539E+16</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -71262,7 +71384,7 @@
         <v>897794980000000</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -71354,7 +71476,7 @@
         <v>871563510000000</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -71446,7 +71568,7 @@
         <v>1.01819308E+16</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -71538,7 +71660,7 @@
         <v>1.02617053E+16</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -71630,7 +71752,7 @@
         <v>876878560000000</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -71722,7 +71844,7 @@
         <v>1.00472015E+16</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -71814,7 +71936,7 @@
         <v>101122500000000</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -71906,7 +72028,7 @@
         <v>1.01247574E+16</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -71998,7 +72120,7 @@
         <v>1.00386438E+16</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -72090,7 +72212,7 @@
         <v>1.01020099E+16</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -72182,7 +72304,7 @@
         <v>1034091900000000</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -72274,7 +72396,7 @@
         <v>98111450000000</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -72366,7 +72488,7 @@
         <v>994958020000000</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -72458,7 +72580,7 @@
         <v>1.02278158E+16</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -72550,7 +72672,7 @@
         <v>1.01814675E+16</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -72642,7 +72764,7 @@
         <v>1.01875872E+16</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -72734,7 +72856,7 @@
         <v>871212420000000</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -72826,7 +72948,7 @@
         <v>994721520000000</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -72918,7 +73040,7 @@
         <v>1.02066043E+16</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -73010,7 +73132,7 @@
         <v>887781730000000</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -73102,7 +73224,7 @@
         <v>875176760000000</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -73194,7 +73316,7 @@
         <v>869939730000000</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -73286,7 +73408,7 @@
         <v>1.01947796E+16</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -73378,7 +73500,7 @@
         <v>1.01747627E+16</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -73470,7 +73592,7 @@
         <v>871085640000000</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -73562,7 +73684,7 @@
         <v>1007392300000000</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -73654,7 +73776,7 @@
         <v>1.02276694E+16</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -73746,7 +73868,7 @@
         <v>1.00723384E+16</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -73838,7 +73960,7 @@
         <v>1.00558568E+16</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -73930,7 +74052,7 @@
         <v>876415310000000</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -74022,7 +74144,7 @@
         <v>1018802600000000</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -74114,7 +74236,7 @@
         <v>1.01532587E+16</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -74206,7 +74328,7 @@
         <v>1.02189167E+16</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -74298,7 +74420,7 @@
         <v>1.00245761E+16</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -74390,7 +74512,7 @@
         <v>1.02978623E+16</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -74482,7 +74604,7 @@
         <v>1.01917076E+16</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -74574,7 +74696,7 @@
         <v>1.02213548E+16</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -74666,7 +74788,7 @@
         <v>1.01539902E+16</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -74758,7 +74880,7 @@
         <v>875849680000000</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -74850,7 +74972,7 @@
         <v>1.00496153E+16</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -74942,7 +75064,7 @@
         <v>879160610000000</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -75034,7 +75156,7 @@
         <v>1.00094354E+16</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -75126,7 +75248,7 @@
         <v>1.02488078E+16</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -75218,7 +75340,7 @@
         <v>878568160000000</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -75310,7 +75432,7 @@
         <v>869242430000000</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -75402,7 +75524,7 @@
         <v>877210140000000</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -75494,7 +75616,7 @@
         <v>871348950000000</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -75586,7 +75708,7 @@
         <v>1.01689357E+16</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -75678,7 +75800,7 @@
         <v>1.00895269E+16</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -75770,7 +75892,7 @@
         <v>1.01587932E+16</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -75862,7 +75984,7 @@
         <v>87686880000000</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -75954,7 +76076,7 @@
         <v>1.02295468E+16</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -76046,7 +76168,7 @@
         <v>963755260000000</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -76138,7 +76260,7 @@
         <v>1.01118842E+16</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -76230,7 +76352,7 @@
         <v>1.02061655E+16</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -76322,7 +76444,7 @@
         <v>1.00718508E+16</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -76414,7 +76536,7 @@
         <v>996298970000000</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -76506,7 +76628,7 @@
         <v>1.01752992E+16</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -76598,7 +76720,7 @@
         <v>994992150000000</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -76690,7 +76812,7 @@
         <v>884860890000000</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -76782,7 +76904,7 @@
         <v>1.02078477E+16</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -76874,7 +76996,7 @@
         <v>994192450000000</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -76966,7 +77088,7 @@
         <v>1.01622553E+16</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -77058,7 +77180,7 @@
         <v>1.00628786E+16</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -77150,7 +77272,7 @@
         <v>1.02112611E+16</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -77242,7 +77364,7 @@
         <v>1.02204283E+16</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -77340,16 +77462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>413</v>
       </c>
@@ -77390,7 +77512,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -77445,7 +77567,7 @@
         <v>2.049284189716E+18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -77501,7 +77623,7 @@
         <v>1.1700744113410002E+18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>413</v>
       </c>
@@ -77542,7 +77664,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -77597,7 +77719,7 @@
         <v>6.2007500000000011</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f>A7+1</f>
         <v>2</v>
@@ -77657,4 +77779,1343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768E4389-086E-4F1E-BA5D-DEBE6BC63551}">
+  <dimension ref="B1:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R2" t="s">
+        <v>453</v>
+      </c>
+      <c r="S2" t="s">
+        <v>454</v>
+      </c>
+      <c r="T2" t="s">
+        <v>455</v>
+      </c>
+      <c r="U2" t="s">
+        <v>456</v>
+      </c>
+      <c r="V2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE('Datos 1'!B$3:B$402)</f>
+        <v>7.1119999999999983</v>
+      </c>
+      <c r="D3" s="1">
+        <f>AVERAGE('Datos 1'!C$3:C$402)</f>
+        <v>4158372063975003.5</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE('Datos 1'!E$3:E$402)</f>
+        <v>7.1487499999999917</v>
+      </c>
+      <c r="F3" s="1">
+        <f>AVERAGE('Datos 1'!F$3:F$402)</f>
+        <v>3071521822900001.5</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE('Datos 1'!H$3:H$402)</f>
+        <v>6.2842499999999983</v>
+      </c>
+      <c r="H3" s="1">
+        <f>AVERAGE('Datos 1'!I$3:I$402)</f>
+        <v>6048151282749996</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE('Datos 1'!K$3:K$402)</f>
+        <v>6.0562499999999977</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE('Datos 1'!L$3:L$402)</f>
+        <v>5894199055149998</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE('Datos 1'!N$3:N$402)</f>
+        <v>6.4080000000000048</v>
+      </c>
+      <c r="L3" s="1">
+        <f>AVERAGE('Datos 1'!O$3:O$402)</f>
+        <v>5142990639525002</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE('Datos 1'!Q$3:Q$402)</f>
+        <v>5.563750000000006</v>
+      </c>
+      <c r="N3" s="1">
+        <f>AVERAGE('Datos 1'!R$3:R$402)</f>
+        <v>6071043584450002</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE('Datos 1'!T$3:T$402)</f>
+        <v>5.404750000000007</v>
+      </c>
+      <c r="P3" s="1">
+        <f>AVERAGE('Datos 1'!U$3:U$402)</f>
+        <v>6129531821325001</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE('Datos 1'!W$3:W$402)</f>
+        <v>5.3525</v>
+      </c>
+      <c r="R3" s="1">
+        <f>AVERAGE('Datos 1'!X$3:X$402)</f>
+        <v>5576582765075000</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE('Datos 1'!Z$3:Z$402)</f>
+        <v>6.3300000000000018</v>
+      </c>
+      <c r="T3" s="1">
+        <f>AVERAGE('Datos 1'!AA$3:AA$402)</f>
+        <v>6059671671375000</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE('Datos 1'!AC$3:AC$402)</f>
+        <v>6.3472499999999998</v>
+      </c>
+      <c r="V3" s="1">
+        <f>AVERAGE('Datos 1'!AD$3:AD$402)</f>
+        <v>3080040036374998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE('Datos 2'!B$3:B$402)</f>
+        <v>4.8742499999999991</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGE('Datos 2'!C$3:C$402)</f>
+        <v>5315643044775001</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE('Datos 2'!E$3:E$402)</f>
+        <v>5.2239999999999984</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE('Datos 2'!F$3:F$402)</f>
+        <v>5047715941449998</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE('Datos 2'!H$3:H$402)</f>
+        <v>7.534999999999985</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE('Datos 2'!I$3:I$402)</f>
+        <v>6134705444775007</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE('Datos 2'!K$3:K$402)</f>
+        <v>7.1887500000000157</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE('Datos 2'!L$3:L$402)</f>
+        <v>6356908391499996</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE('Datos 2'!N$3:N$402)</f>
+        <v>5.4670000000000059</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE('Datos 2'!O$3:O$402)</f>
+        <v>5577139949650000</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE('Datos 2'!Q$3:Q$402)</f>
+        <v>5.0754999999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <f>AVERAGE('Datos 2'!R$3:R$402)</f>
+        <v>6298856959125002</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE('Datos 2'!T$3:T$402)</f>
+        <v>4.2227499999999942</v>
+      </c>
+      <c r="P4" s="1">
+        <f>AVERAGE('Datos 2'!U$3:U$402)</f>
+        <v>6028771513700000</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE('Datos 2'!W$3:W$402)</f>
+        <v>5.2384999999999966</v>
+      </c>
+      <c r="R4" s="1">
+        <f>AVERAGE('Datos 2'!X$3:X$402)</f>
+        <v>5726619657875002</v>
+      </c>
+      <c r="S4">
+        <f>AVERAGE('Datos 2'!Z$3:Z$402)</f>
+        <v>5.9139999999999961</v>
+      </c>
+      <c r="T4" s="1">
+        <f>AVERAGE('Datos 2'!AA$3:AA$402)</f>
+        <v>6197106227849999</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE('Datos 2'!AC$3:AC$402)</f>
+        <v>6.8340000000000005</v>
+      </c>
+      <c r="V4" s="1">
+        <f>AVERAGE('Datos 2'!AD$3:AD$402)</f>
+        <v>5949987549850002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M7" t="s">
+        <v>448</v>
+      </c>
+      <c r="N7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>452</v>
+      </c>
+      <c r="R7" t="s">
+        <v>453</v>
+      </c>
+      <c r="S7" t="s">
+        <v>454</v>
+      </c>
+      <c r="T7" t="s">
+        <v>455</v>
+      </c>
+      <c r="U7" t="s">
+        <v>456</v>
+      </c>
+      <c r="V7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.STDEV.S('Datos 1'!B$3:B$402)</f>
+        <v>4.8356918625439427</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.STDEV.S('Datos 1'!C$3:C$402)</f>
+        <v>4573344479790631</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.STDEV.S('Datos 1'!E$3:E$402)</f>
+        <v>5.063912168830953</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.STDEV.S('Datos 1'!F$3:F$402)</f>
+        <v>4126220594936569.5</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.STDEV.S('Datos 1'!H$3:H$402)</f>
+        <v>2.3390714130158612</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.STDEV.S('Datos 1'!I$3:I$402)</f>
+        <v>4720159384827966</v>
+      </c>
+      <c r="I8">
+        <f>_xlfn.STDEV.S('Datos 1'!K$3:K$402)</f>
+        <v>1.758776328284084</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.STDEV.S('Datos 1'!L$3:L$402)</f>
+        <v>4706499031479952</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.STDEV.S('Datos 1'!N$3:N$402)</f>
+        <v>3.2524886943334388</v>
+      </c>
+      <c r="L8">
+        <f>_xlfn.STDEV.S('Datos 1'!O$3:O$402)</f>
+        <v>4716515826251020</v>
+      </c>
+      <c r="M8">
+        <f>_xlfn.STDEV.S('Datos 1'!Q$3:Q$402)</f>
+        <v>2.4598247461871843</v>
+      </c>
+      <c r="N8">
+        <f>_xlfn.STDEV.S('Datos 1'!R$3:R$402)</f>
+        <v>4606746629726228</v>
+      </c>
+      <c r="O8">
+        <f>_xlfn.STDEV.S('Datos 1'!T$3:T$402)</f>
+        <v>2.2113519917866675</v>
+      </c>
+      <c r="P8">
+        <f>_xlfn.STDEV.S('Datos 1'!U$3:U$402)</f>
+        <v>4715700818032624</v>
+      </c>
+      <c r="Q8">
+        <f>_xlfn.STDEV.S('Datos 1'!W$3:W$402)</f>
+        <v>3.1477316095427024</v>
+      </c>
+      <c r="R8">
+        <f>_xlfn.STDEV.S('Datos 1'!X$3:X$402)</f>
+        <v>4855187831962049</v>
+      </c>
+      <c r="S8">
+        <f>_xlfn.STDEV.S('Datos 1'!Z$3:Z$402)</f>
+        <v>2.3667178504119635</v>
+      </c>
+      <c r="T8">
+        <f>_xlfn.STDEV.S('Datos 1'!AA$3:AA$402)</f>
+        <v>4714314754057613</v>
+      </c>
+      <c r="U8">
+        <f>_xlfn.STDEV.S('Datos 1'!AC$3:AC$402)</f>
+        <v>4.418461206810596</v>
+      </c>
+      <c r="V8">
+        <f>_xlfn.STDEV.S('Datos 1'!AD$3:AD$402)</f>
+        <v>4106251948069532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.STDEV.S('Datos 2'!B$3:B$402)</f>
+        <v>3.2503420968979855</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.STDEV.S('Datos 2'!C$3:C$402)</f>
+        <v>4853950531589102</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.STDEV.S('Datos 2'!E$3:E$402)</f>
+        <v>5.4553024491800661</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.STDEV.S('Datos 2'!F$3:F$402)</f>
+        <v>4713943281840083</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.STDEV.S('Datos 2'!H$3:H$402)</f>
+        <v>3.7533043086169955</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.STDEV.S('Datos 2'!I$3:I$402)</f>
+        <v>4846615537813173</v>
+      </c>
+      <c r="I9">
+        <f>_xlfn.STDEV.S('Datos 2'!K$3:K$402)</f>
+        <v>3.7944225573675121</v>
+      </c>
+      <c r="J9">
+        <f>_xlfn.STDEV.S('Datos 2'!L$3:L$402)</f>
+        <v>4808266442220070</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.STDEV.S('Datos 2'!N$3:N$402)</f>
+        <v>3.4963942758691804</v>
+      </c>
+      <c r="L9">
+        <f>_xlfn.STDEV.S('Datos 2'!O$3:O$402)</f>
+        <v>4853120678423638</v>
+      </c>
+      <c r="M9">
+        <f>_xlfn.STDEV.S('Datos 2'!Q$3:Q$402)</f>
+        <v>3.9132638340120138</v>
+      </c>
+      <c r="N9">
+        <f>_xlfn.STDEV.S('Datos 2'!R$3:R$402)</f>
+        <v>4794229839199013</v>
+      </c>
+      <c r="O9">
+        <f>_xlfn.STDEV.S('Datos 2'!T$3:T$402)</f>
+        <v>2.9646382811136802</v>
+      </c>
+      <c r="P9">
+        <f>_xlfn.STDEV.S('Datos 2'!U$3:U$402)</f>
+        <v>4841999493210148</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S('Datos 2'!W$3:W$402)</f>
+        <v>3.0316571562071517</v>
+      </c>
+      <c r="R9">
+        <f>_xlfn.STDEV.S('Datos 2'!X$3:X$402)</f>
+        <v>4757298765325373</v>
+      </c>
+      <c r="S9">
+        <f>_xlfn.STDEV.S('Datos 2'!Z$3:Z$402)</f>
+        <v>3.1383957397926974</v>
+      </c>
+      <c r="T9">
+        <f>_xlfn.STDEV.S('Datos 2'!AA$3:AA$402)</f>
+        <v>4695013015578801</v>
+      </c>
+      <c r="U9">
+        <f>_xlfn.STDEV.S('Datos 2'!AC$3:AC$402)</f>
+        <v>3.5658564652586615</v>
+      </c>
+      <c r="V9">
+        <f>_xlfn.STDEV.S('Datos 2'!AD$3:AD$402)</f>
+        <v>4840929830771658</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" t="s">
+        <v>445</v>
+      </c>
+      <c r="K12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" t="s">
+        <v>447</v>
+      </c>
+      <c r="M12" t="s">
+        <v>448</v>
+      </c>
+      <c r="N12" t="s">
+        <v>449</v>
+      </c>
+      <c r="O12" t="s">
+        <v>450</v>
+      </c>
+      <c r="P12" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>452</v>
+      </c>
+      <c r="R12" t="s">
+        <v>453</v>
+      </c>
+      <c r="S12" t="s">
+        <v>454</v>
+      </c>
+      <c r="T12" t="s">
+        <v>455</v>
+      </c>
+      <c r="U12" t="s">
+        <v>456</v>
+      </c>
+      <c r="V12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13">
+        <f>MIN('Datos 2'!B$3:B$402)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f>MIN('Datos 1'!C$3:C$402)</f>
+        <v>8171720000000</v>
+      </c>
+      <c r="E13">
+        <f>MIN('Datos 2'!E$3:E$402)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>MIN('Datos 1'!F$3:F$402)</f>
+        <v>81089390000000</v>
+      </c>
+      <c r="G13">
+        <f>MIN('Datos 2'!H$3:H$402)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>MIN('Datos 1'!I$3:I$402)</f>
+        <v>9052580000000</v>
+      </c>
+      <c r="I13">
+        <f>MIN('Datos 2'!K$3:K$402)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f>MIN('Datos 1'!L$3:L$402)</f>
+        <v>9890310000000</v>
+      </c>
+      <c r="K13">
+        <f>MIN('Datos 2'!N$3:N$402)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN('Datos 1'!O$3:O$402)</f>
+        <v>9882240000000</v>
+      </c>
+      <c r="M13">
+        <f>MIN('Datos 2'!Q$3:Q$402)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f>MIN('Datos 1'!R$3:R$402)</f>
+        <v>9910790000000</v>
+      </c>
+      <c r="O13">
+        <f>MIN('Datos 2'!T$3:T$402)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>MIN('Datos 1'!U$3:U$402)</f>
+        <v>79772330000000</v>
+      </c>
+      <c r="Q13">
+        <f>MIN('Datos 2'!W$3:W$402)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f>MIN('Datos 1'!X$3:X$402)</f>
+        <v>9767430000000</v>
+      </c>
+      <c r="S13">
+        <f>MIN('Datos 2'!Z$3:Z$402)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f>MIN('Datos 1'!AA$3:AA$402)</f>
+        <v>9867270000000</v>
+      </c>
+      <c r="U13">
+        <f>MIN('Datos 2'!AC$3:AC$402)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <f>MIN('Datos 1'!AD$3:AD$402)</f>
+        <v>9553170000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14">
+        <f>MIN('Datos 1'!B$3:B$402)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>MIN('Datos 2'!C$3:C$402)</f>
+        <v>991040000000</v>
+      </c>
+      <c r="E14">
+        <f>MIN('Datos 1'!E$3:E$402)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f>MIN('Datos 2'!F$3:F$402)</f>
+        <v>87773920000000</v>
+      </c>
+      <c r="G14">
+        <f>MIN('Datos 1'!H$3:H$402)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>MIN('Datos 2'!I$3:I$402)</f>
+        <v>8774320000000</v>
+      </c>
+      <c r="I14">
+        <f>MIN('Datos 1'!K$3:K$402)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f>MIN('Datos 2'!L$3:L$402)</f>
+        <v>86733340000000</v>
+      </c>
+      <c r="K14">
+        <f>MIN('Datos 1'!N$3:N$402)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN('Datos 2'!O$3:O$402)</f>
+        <v>992320000000</v>
+      </c>
+      <c r="M14">
+        <f>MIN('Datos 1'!Q$3:Q$402)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f>MIN('Datos 2'!R$3:R$402)</f>
+        <v>9857030000000</v>
+      </c>
+      <c r="O14">
+        <f>MIN('Datos 1'!T$3:T$402)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f>MIN('Datos 2'!U$3:U$402)</f>
+        <v>86835740000000</v>
+      </c>
+      <c r="Q14">
+        <f>MIN('Datos 1'!W$3:W$402)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f>MIN('Datos 2'!X$3:X$402)</f>
+        <v>8710710000000</v>
+      </c>
+      <c r="S14">
+        <f>MIN('Datos 1'!Z$3:Z$402)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>MIN('Datos 2'!AA$3:AA$402)</f>
+        <v>9971840000000</v>
+      </c>
+      <c r="U14">
+        <f>MIN('Datos 1'!AC$3:AC$402)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <f>MIN('Datos 2'!AD$3:AD$402)</f>
+        <v>9106340000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J17" t="s">
+        <v>445</v>
+      </c>
+      <c r="K17" t="s">
+        <v>446</v>
+      </c>
+      <c r="L17" t="s">
+        <v>447</v>
+      </c>
+      <c r="M17" t="s">
+        <v>448</v>
+      </c>
+      <c r="N17" t="s">
+        <v>449</v>
+      </c>
+      <c r="O17" t="s">
+        <v>450</v>
+      </c>
+      <c r="P17" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>452</v>
+      </c>
+      <c r="R17" t="s">
+        <v>453</v>
+      </c>
+      <c r="S17" t="s">
+        <v>454</v>
+      </c>
+      <c r="T17" t="s">
+        <v>455</v>
+      </c>
+      <c r="U17" t="s">
+        <v>456</v>
+      </c>
+      <c r="V17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18">
+        <f>MAX('Datos 1'!B$3:B$402)</f>
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <f>MAX('Datos 1'!C$3:C$402)</f>
+        <v>2.51437014E+16</v>
+      </c>
+      <c r="E18">
+        <f>MAX('Datos 1'!E$3:E$402)</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F18" s="1">
+        <f>MAX('Datos 1'!F$3:F$402)</f>
+        <v>2.60497956E+16</v>
+      </c>
+      <c r="G18">
+        <f>MAX('Datos 1'!H$3:H$402)</f>
+        <v>16.3</v>
+      </c>
+      <c r="H18" s="1">
+        <f>MAX('Datos 1'!I$3:I$402)</f>
+        <v>2.55709779E+16</v>
+      </c>
+      <c r="I18">
+        <f>MAX('Datos 1'!K$3:K$402)</f>
+        <v>10.1</v>
+      </c>
+      <c r="J18" s="1">
+        <f>MAX('Datos 1'!L$3:L$402)</f>
+        <v>2.49526765E+16</v>
+      </c>
+      <c r="K18">
+        <f>MAX('Datos 1'!N$3:N$402)</f>
+        <v>23.1</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MAX('Datos 1'!O$3:O$402)</f>
+        <v>2.51935117E+16</v>
+      </c>
+      <c r="M18">
+        <f>MAX('Datos 1'!Q$3:Q$402)</f>
+        <v>14.9</v>
+      </c>
+      <c r="N18" s="1">
+        <f>MAX('Datos 1'!R$3:R$402)</f>
+        <v>1.14882386E+16</v>
+      </c>
+      <c r="O18">
+        <f>MAX('Datos 1'!T$3:T$402)</f>
+        <v>13.8</v>
+      </c>
+      <c r="P18" s="1">
+        <f>MAX('Datos 1'!U$3:U$402)</f>
+        <v>2.60994841E+16</v>
+      </c>
+      <c r="Q18">
+        <f>MAX('Datos 1'!W$3:W$402)</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R18" s="1">
+        <f>MAX('Datos 1'!X$3:X$402)</f>
+        <v>2.58371692E+16</v>
+      </c>
+      <c r="S18">
+        <f>MAX('Datos 1'!Z$3:Z$402)</f>
+        <v>13.1</v>
+      </c>
+      <c r="T18" s="1">
+        <f>MAX('Datos 1'!AA$3:AA$402)</f>
+        <v>2.55787797E+16</v>
+      </c>
+      <c r="U18">
+        <f>MAX('Datos 1'!AC$3:AC$402)</f>
+        <v>23.8</v>
+      </c>
+      <c r="V18" s="1">
+        <f>MAX('Datos 1'!AD$3:AD$402)</f>
+        <v>2.53178791E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19">
+        <f>MAX('Datos 2'!B$3:B$402)</f>
+        <v>15.3</v>
+      </c>
+      <c r="D19" s="1">
+        <f>MAX('Datos 2'!C$3:C$402)</f>
+        <v>2.59994978E+16</v>
+      </c>
+      <c r="E19">
+        <f>MAX('Datos 2'!E$3:E$402)</f>
+        <v>27.8</v>
+      </c>
+      <c r="F19" s="1">
+        <f>MAX('Datos 2'!F$3:F$402)</f>
+        <v>2.58941476E+16</v>
+      </c>
+      <c r="G19">
+        <f>MAX('Datos 2'!H$3:H$402)</f>
+        <v>14.2</v>
+      </c>
+      <c r="H19" s="1">
+        <f>MAX('Datos 2'!I$3:I$402)</f>
+        <v>2.67461404E+16</v>
+      </c>
+      <c r="I19">
+        <f>MAX('Datos 2'!K$3:K$402)</f>
+        <v>28.3</v>
+      </c>
+      <c r="J19" s="1">
+        <f>MAX('Datos 2'!L$3:L$402)</f>
+        <v>2.59239411E+16</v>
+      </c>
+      <c r="K19">
+        <f>MAX('Datos 2'!N$3:N$402)</f>
+        <v>13.2</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MAX('Datos 2'!O$3:O$402)</f>
+        <v>2.53403827E+16</v>
+      </c>
+      <c r="M19">
+        <f>MAX('Datos 2'!Q$3:Q$402)</f>
+        <v>13</v>
+      </c>
+      <c r="N19" s="1">
+        <f>MAX('Datos 2'!R$3:R$402)</f>
+        <v>2.62138552E+16</v>
+      </c>
+      <c r="O19">
+        <f>MAX('Datos 2'!T$3:T$402)</f>
+        <v>12.1</v>
+      </c>
+      <c r="P19" s="1">
+        <f>MAX('Datos 2'!U$3:U$402)</f>
+        <v>2.62129775E+16</v>
+      </c>
+      <c r="Q19">
+        <f>MAX('Datos 2'!W$3:W$402)</f>
+        <v>11.5</v>
+      </c>
+      <c r="R19" s="1">
+        <f>MAX('Datos 2'!X$3:X$402)</f>
+        <v>2.59309628E+16</v>
+      </c>
+      <c r="S19">
+        <f>MAX('Datos 2'!Z$3:Z$402)</f>
+        <v>12.1</v>
+      </c>
+      <c r="T19" s="1">
+        <f>MAX('Datos 2'!AA$3:AA$402)</f>
+        <v>2.45035791E+16</v>
+      </c>
+      <c r="U19">
+        <f>MAX('Datos 2'!AC$3:AC$402)</f>
+        <v>14.3</v>
+      </c>
+      <c r="V19" s="1">
+        <f>MAX('Datos 2'!AD$3:AD$402)</f>
+        <v>2.57098762E+16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I22" t="s">
+        <v>444</v>
+      </c>
+      <c r="J22" t="s">
+        <v>445</v>
+      </c>
+      <c r="K22" t="s">
+        <v>446</v>
+      </c>
+      <c r="L22" t="s">
+        <v>447</v>
+      </c>
+      <c r="M22" t="s">
+        <v>448</v>
+      </c>
+      <c r="N22" t="s">
+        <v>449</v>
+      </c>
+      <c r="O22" t="s">
+        <v>450</v>
+      </c>
+      <c r="P22" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>452</v>
+      </c>
+      <c r="R22" t="s">
+        <v>453</v>
+      </c>
+      <c r="S22" t="s">
+        <v>454</v>
+      </c>
+      <c r="T22" t="s">
+        <v>455</v>
+      </c>
+      <c r="U22" t="s">
+        <v>456</v>
+      </c>
+      <c r="V22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.VAR.S('Datos 1'!B$3:B$402)</f>
+        <v>23.383915789473708</v>
+      </c>
+      <c r="D23">
+        <f>_xlfn.VAR.S('Datos 1'!C$3:C$402)</f>
+        <v>2.0915479730831439E+31</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.VAR.S('Datos 1'!E$3:E$402)</f>
+        <v>25.64320645363421</v>
+      </c>
+      <c r="F23">
+        <f>_xlfn.VAR.S('Datos 1'!F$3:F$402)</f>
+        <v>1.7025696398078698E+31</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.VAR.S('Datos 1'!H$3:H$402)</f>
+        <v>5.4712550751880178</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.VAR.S('Datos 1'!I$3:I$402)</f>
+        <v>2.2279904618179524E+31</v>
+      </c>
+      <c r="I23">
+        <f>_xlfn.VAR.S('Datos 1'!K$3:K$402)</f>
+        <v>3.0932941729324441</v>
+      </c>
+      <c r="J23">
+        <f>_xlfn.VAR.S('Datos 1'!L$3:L$402)</f>
+        <v>2.2151133133321724E+31</v>
+      </c>
+      <c r="K23">
+        <f>_xlfn.VAR.S('Datos 1'!N$3:N$402)</f>
+        <v>10.578682706766838</v>
+      </c>
+      <c r="L23">
+        <f>_xlfn.VAR.S('Datos 1'!O$3:O$402)</f>
+        <v>2.2245521539276339E+31</v>
+      </c>
+      <c r="M23">
+        <f>_xlfn.VAR.S('Datos 1'!Q$3:Q$402)</f>
+        <v>6.0507377819548465</v>
+      </c>
+      <c r="N23">
+        <f>_xlfn.VAR.S('Datos 1'!R$3:R$402)</f>
+        <v>2.1222114510493958E+31</v>
+      </c>
+      <c r="O23">
+        <f>_xlfn.VAR.S('Datos 1'!T$3:T$402)</f>
+        <v>4.890077631578861</v>
+      </c>
+      <c r="P23">
+        <f>_xlfn.VAR.S('Datos 1'!U$3:U$402)</f>
+        <v>2.2237834205193562E+31</v>
+      </c>
+      <c r="Q23">
+        <f>_xlfn.VAR.S('Datos 1'!W$3:W$402)</f>
+        <v>9.9082142857142923</v>
+      </c>
+      <c r="R23">
+        <f>_xlfn.VAR.S('Datos 1'!X$3:X$402)</f>
+        <v>2.3572848883632343E+31</v>
+      </c>
+      <c r="S23">
+        <f>_xlfn.VAR.S('Datos 1'!Z$3:Z$402)</f>
+        <v>5.6013533834586253</v>
+      </c>
+      <c r="T23">
+        <f>_xlfn.VAR.S('Datos 1'!AA$3:AA$402)</f>
+        <v>2.2224763600325288E+31</v>
+      </c>
+      <c r="U23">
+        <f>_xlfn.VAR.S('Datos 1'!AC$3:AC$402)</f>
+        <v>19.52279943609015</v>
+      </c>
+      <c r="V23">
+        <f>_xlfn.VAR.S('Datos 1'!AD$3:AD$402)</f>
+        <v>1.6861305061024826E+31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.VAR.S('Datos 2'!B$3:B$402)</f>
+        <v>10.564723746867193</v>
+      </c>
+      <c r="D24">
+        <f>_xlfn.VAR.S('Datos 2'!C$3:C$402)</f>
+        <v>2.3560835763114123E+31</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.VAR.S('Datos 2'!E$3:E$402)</f>
+        <v>29.760324812030024</v>
+      </c>
+      <c r="F24">
+        <f>_xlfn.VAR.S('Datos 2'!F$3:F$402)</f>
+        <v>2.2221261264405248E+31</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.VAR.S('Datos 2'!H$3:H$402)</f>
+        <v>14.087293233082903</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.VAR.S('Datos 2'!I$3:I$402)</f>
+        <v>2.3489682171372075E+31</v>
+      </c>
+      <c r="I24">
+        <f>_xlfn.VAR.S('Datos 2'!K$3:K$402)</f>
+        <v>14.39764254385941</v>
+      </c>
+      <c r="J24">
+        <f>_xlfn.VAR.S('Datos 2'!L$3:L$402)</f>
+        <v>2.3119426179379648E+31</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.VAR.S('Datos 2'!N$3:N$402)</f>
+        <v>12.224772932330769</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.VAR.S('Datos 2'!O$3:O$402)</f>
+        <v>2.3552780319343116E+31</v>
+      </c>
+      <c r="M24">
+        <f>_xlfn.VAR.S('Datos 2'!Q$3:Q$402)</f>
+        <v>15.313633834586406</v>
+      </c>
+      <c r="N24">
+        <f>_xlfn.VAR.S('Datos 2'!R$3:R$402)</f>
+        <v>2.2984639751066189E+31</v>
+      </c>
+      <c r="O24">
+        <f>_xlfn.VAR.S('Datos 2'!T$3:T$402)</f>
+        <v>8.7890801378446763</v>
+      </c>
+      <c r="P24">
+        <f>_xlfn.VAR.S('Datos 2'!U$3:U$402)</f>
+        <v>2.3444959092247334E+31</v>
+      </c>
+      <c r="Q24">
+        <f>_xlfn.VAR.S('Datos 2'!W$3:W$402)</f>
+        <v>9.1909451127820354</v>
+      </c>
+      <c r="R24">
+        <f>_xlfn.VAR.S('Datos 2'!X$3:X$402)</f>
+        <v>2.263189154256632E+31</v>
+      </c>
+      <c r="S24">
+        <f>_xlfn.VAR.S('Datos 2'!Z$3:Z$402)</f>
+        <v>9.8495278195489515</v>
+      </c>
+      <c r="T24">
+        <f>_xlfn.VAR.S('Datos 2'!AA$3:AA$402)</f>
+        <v>2.2043147216454347E+31</v>
+      </c>
+      <c r="U24">
+        <f>_xlfn.VAR.S('Datos 2'!AC$3:AC$402)</f>
+        <v>12.715332330826996</v>
+      </c>
+      <c r="V24">
+        <f>_xlfn.VAR.S('Datos 2'!AD$3:AD$402)</f>
+        <v>2.3434601626454916E+31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>